--- a/Aidiko dojo_ScreenLayout.xlsx
+++ b/Aidiko dojo_ScreenLayout.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhh\OneDrive\Desktop\C#_WF\Requirement &amp; Db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhut-Kha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20493" windowHeight="7907" tabRatio="906" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="906" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="194">
   <si>
     <t>A</t>
   </si>
@@ -175,9 +175,6 @@
     <t>- Main Menu</t>
   </si>
   <si>
-    <t>- Admin: Full Control</t>
-  </si>
-  <si>
     <t>Screen Search</t>
   </si>
   <si>
@@ -185,12 +182,6 @@
   </si>
   <si>
     <t>- Tìm kiếm theo mã vạch, họ tên, ngày sinh, ngày</t>
-  </si>
-  <si>
-    <t xml:space="preserve">đăng ký. Có thể tìm kiếm nhanh trên textbox tìm kiếm </t>
-  </si>
-  <si>
-    <t>nhanh, hay tìm kiếm từng thứ</t>
   </si>
   <si>
     <t>-Thông tin tìm kiếm sẽ hiển thị ở bên dưới</t>
@@ -244,9 +235,6 @@
     <t>0316568655</t>
   </si>
   <si>
-    <t xml:space="preserve">- Admin có thể tìm theo 2 cách </t>
-  </si>
-  <si>
     <t xml:space="preserve">Vương Văn Hậu </t>
   </si>
   <si>
@@ -256,55 +244,10 @@
     <t>0326489597</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin chọn radio button tìm kiếm nhanh hay tìm </t>
-  </si>
-  <si>
-    <t>kiếm theo điều kiện để lựa chọn tìm kiếm theo ý mình</t>
-  </si>
-  <si>
-    <t>Cách 1(Radio Button 'Tìm kiếm nhanh'): Admin có</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> thể tìm kiếm theo mã vạch, ngày sinh, ngày đăng </t>
-  </si>
-  <si>
-    <t>ký hay ngày sinh trên textboc tìm kiếm nhanh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cách 2 (Radio Button 'Tìm kiếm theo điều kiện' ): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin nhập từ khoá vào textbox 'Mã Vạch', </t>
-  </si>
-  <si>
     <t xml:space="preserve">Họ tên', 'Ngày Đăng Ký', 'Ngày Sinh' tìm theo điều kiện </t>
   </si>
   <si>
     <t>mà mình muốn tìm kiếm</t>
-  </si>
-  <si>
-    <t>1. Tìm Kiếm Nhanh: String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Họ Tên: String </t>
-  </si>
-  <si>
-    <t>4. Ngày Đăng Ký: DateTime</t>
-  </si>
-  <si>
-    <t>5. Ngày Sinh: DateTime</t>
-  </si>
-  <si>
-    <t>6. Search: Button</t>
-  </si>
-  <si>
-    <t>7. Tìm kiếm nhanh: Combobox</t>
-  </si>
-  <si>
-    <t>8. Tìm kiếm theo điều kiện: Combobox</t>
   </si>
   <si>
     <t>Sum All: decimal</t>
@@ -404,9 +347,6 @@
   </si>
   <si>
     <t xml:space="preserve">Screen Class </t>
-  </si>
-  <si>
-    <t>2. SKU: INT</t>
   </si>
   <si>
     <t>Name: String(20)</t>
@@ -582,15 +522,6 @@
     <t>Phí khác</t>
   </si>
   <si>
-    <t xml:space="preserve">- Admin click </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel </t>
-  </si>
-  <si>
-    <t>để về trang manu</t>
-  </si>
-  <si>
     <t>class</t>
   </si>
   <si>
@@ -649,6 +580,54 @@
   </si>
   <si>
     <t>Sun: checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Functionality</t>
+  </si>
+  <si>
+    <t>1. SKU: INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Họ Tên: String </t>
+  </si>
+  <si>
+    <t>3. Ngày Đăng Ký: DateTime</t>
+  </si>
+  <si>
+    <t>4. Ngày Sinh: DateTime</t>
+  </si>
+  <si>
+    <t>5. Search: Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ý mình, admin nhập từ khoá vào textbox 'Mã Vạch', </t>
+  </si>
+  <si>
+    <t>-Admin tìm kiếm theo điều kiện để lựa chọn tìm kiếm theo</t>
+  </si>
+  <si>
+    <t>1. Tìm kiếm nhanh: INT</t>
+  </si>
+  <si>
+    <t>2. Search: Button</t>
+  </si>
+  <si>
+    <t>đăng ký trên một textbox Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textbox Search, sau đó click vào button Search khi đó </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thông tin sẽ hiển thị dạng danh sách ở bên dưới </t>
+  </si>
+  <si>
+    <t>3. Export: Button</t>
+  </si>
+  <si>
+    <t>6. Export: Button</t>
+  </si>
+  <si>
+    <t>đăng ký theo từng textbox thích hợp</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1166,7 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1303,7 +1282,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1315,14 +1293,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1404,6 +1380,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1533,9 +1512,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1545,10 +1521,34 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3717,8 +3717,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="931458" y="7978602"/>
-          <a:ext cx="3110441" cy="254622"/>
+          <a:off x="933450" y="8262485"/>
+          <a:ext cx="3166222" cy="276536"/>
           <a:chOff x="99" y="765"/>
           <a:chExt cx="364" cy="27"/>
         </a:xfrm>
@@ -9776,15 +9776,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>313267</xdr:colOff>
+          <xdr:colOff>312420</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>143933</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>660400</xdr:colOff>
+          <xdr:colOff>662940</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>110067</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9813,7 +9813,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -10802,13 +10802,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>694267</xdr:colOff>
+          <xdr:colOff>693420</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>42333</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>177800</xdr:colOff>
+          <xdr:colOff>175260</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -10864,13 +10864,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>103</xdr:row>
-          <xdr:rowOff>8467</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1193800</xdr:colOff>
+          <xdr:colOff>1196340</xdr:colOff>
           <xdr:row>104</xdr:row>
-          <xdr:rowOff>67733</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10916,7 +10916,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -10946,15 +10946,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>135467</xdr:colOff>
+          <xdr:colOff>137160</xdr:colOff>
           <xdr:row>102</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>93133</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>104</xdr:row>
-          <xdr:rowOff>93133</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11000,7 +11000,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11032,13 +11032,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>96</xdr:row>
-          <xdr:rowOff>93133</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>97</xdr:row>
-          <xdr:rowOff>118533</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11085,7 +11085,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>99</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11293,10 +11293,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-GB"/>
-            <a:t>s</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11307,9 +11304,9 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>406400</xdr:colOff>
+          <xdr:colOff>403860</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>160867</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -11344,7 +11341,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -11436,9 +11433,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1337733</xdr:colOff>
+          <xdr:colOff>1341120</xdr:colOff>
           <xdr:row>105</xdr:row>
-          <xdr:rowOff>42333</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11484,7 +11481,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -11663,189 +11660,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>186264</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>992</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1377575" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10363197" y="6113925"/>
-          <a:ext cx="1377575" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Quản lý hội phí</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>17925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1185830" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10363200" y="6130858"/>
-          <a:ext cx="1185830" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Quản lý lớp</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>16429</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="914399" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10363200" y="6129362"/>
-          <a:ext cx="914399" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Thiết lập</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12155,7 +11980,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="TextBox 28">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
@@ -12213,7 +12038,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="TextBox 29">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
@@ -12273,7 +12098,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="TextBox 30">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
@@ -12439,13 +12264,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>804333</xdr:colOff>
+          <xdr:colOff>807720</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>16933</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>270933</xdr:colOff>
+          <xdr:colOff>274320</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -12476,7 +12301,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -12670,13 +12495,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>103</xdr:row>
-          <xdr:rowOff>8467</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1193800</xdr:colOff>
+          <xdr:colOff>1196340</xdr:colOff>
           <xdr:row>104</xdr:row>
-          <xdr:rowOff>67733</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12722,7 +12547,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12752,15 +12577,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>135467</xdr:colOff>
+          <xdr:colOff>137160</xdr:colOff>
           <xdr:row>102</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>93133</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>104</xdr:row>
-          <xdr:rowOff>93133</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12806,7 +12631,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -12838,13 +12663,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>96</xdr:row>
-          <xdr:rowOff>93133</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>97</xdr:row>
-          <xdr:rowOff>118533</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12891,7 +12716,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>99</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13211,10 +13036,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-GB"/>
-            <a:t>s</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13457,15 +13279,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>254000</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>59267</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>59267</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13494,7 +13316,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -13732,9 +13554,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1337733</xdr:colOff>
+          <xdr:colOff>1341120</xdr:colOff>
           <xdr:row>105</xdr:row>
-          <xdr:rowOff>42333</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13780,7 +13602,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -13959,189 +13781,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>186264</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>992</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1377575" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="TextBox 28">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10784538" y="6106953"/>
-          <a:ext cx="1377575" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Quản lý hội phí</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>17925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1185830" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="TextBox 29"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10787529" y="6123886"/>
-          <a:ext cx="1185830" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Quản lý lớp</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>16429</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="914399" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="TextBox 30"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10787529" y="6122390"/>
-          <a:ext cx="914399" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Thiết lập</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14451,7 +14101,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="TextBox 35">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
@@ -14509,7 +14159,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="37" name="TextBox 36">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
@@ -14569,7 +14219,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="TextBox 37">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
@@ -14735,15 +14385,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>660400</xdr:colOff>
+          <xdr:colOff>662940</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>118533</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14772,7 +14422,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -15022,15 +14672,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>474133</xdr:colOff>
+          <xdr:colOff>472440</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>135467</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1803400</xdr:colOff>
+          <xdr:colOff>1805940</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>8467</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15077,13 +14727,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>287867</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>110067</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>575733</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -15114,7 +14764,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -15714,15 +15364,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>8467</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>67733</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>567267</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15751,7 +15401,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -15780,15 +15430,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>211667</xdr:colOff>
+          <xdr:colOff>213360</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>143933</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>516467</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>169333</xdr:rowOff>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15844,15 +15494,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>211667</xdr:colOff>
+          <xdr:colOff>213360</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>194733</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>516467</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15908,15 +15558,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>237067</xdr:colOff>
+          <xdr:colOff>236220</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>194733</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>541867</xdr:colOff>
+          <xdr:colOff>541020</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15980,7 +15630,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>177800</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16038,13 +15688,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>194733</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16108,7 +15758,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>177800</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16164,15 +15814,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>220133</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>143933</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>524933</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>169333</xdr:rowOff>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16228,15 +15878,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>220133</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>194733</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>524933</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16292,15 +15942,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>237067</xdr:colOff>
+          <xdr:colOff>236220</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>541867</xdr:colOff>
+          <xdr:colOff>541020</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>177800</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16358,13 +16008,13 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>194733</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16422,13 +16072,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>143933</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>169333</xdr:rowOff>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16486,13 +16136,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>194733</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16548,15 +16198,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>211667</xdr:colOff>
+          <xdr:colOff>213360</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>143933</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>516467</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>169333</xdr:rowOff>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16612,15 +16262,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>211667</xdr:colOff>
+          <xdr:colOff>213360</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>194733</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>516467</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16676,15 +16326,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>677333</xdr:colOff>
+          <xdr:colOff>678180</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>829733</xdr:colOff>
+          <xdr:colOff>830580</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>194733</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16713,7 +16363,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -16742,15 +16392,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>53340</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>220133</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>211667</xdr:rowOff>
+          <xdr:rowOff>213360</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16779,7 +16429,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -17648,9 +17298,9 @@
       <selection activeCell="H39" activeCellId="1" sqref="A1:E3 H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="3" max="3" width="3.25" customWidth="1"/>
+    <col min="3" max="3" width="3.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -17669,7 +17319,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="13.35" thickBot="1">
+    <row r="2" spans="1:14" ht="13.8" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -17687,52 +17337,52 @@
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="135"/>
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="138"/>
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="143"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="141"/>
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:14">
@@ -17854,7 +17504,7 @@
       <c r="C12" s="24"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="22"/>
@@ -17882,20 +17532,20 @@
       <c r="M13" s="21"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" ht="13.35" thickBot="1">
+    <row r="14" spans="1:14" ht="13.8" thickBot="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="134"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="132"/>
       <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:14">
@@ -18009,35 +17659,35 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="9" max="9" width="5.625" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13" customHeight="1">
-      <c r="A1" s="154" t="s">
+    <row r="1" spans="1:14" ht="13.05" customHeight="1">
+      <c r="A1" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="147" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
       <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
@@ -18052,18 +17702,18 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="148" t="s">
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="148"/>
       <c r="K2" s="32" t="s">
         <v>19</v>
       </c>
@@ -18072,16 +17722,16 @@
       <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="154"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="153"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="151"/>
       <c r="K3" s="33">
         <v>43292</v>
       </c>
@@ -18099,13 +17749,13 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="144" t="s">
+      <c r="J4" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="146"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="144"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5"/>
@@ -18143,16 +17793,16 @@
       <c r="M6" s="2"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" s="45" customFormat="1" ht="6.7" customHeight="1">
-      <c r="A7" s="110"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
+    <row r="7" spans="1:14" s="45" customFormat="1" ht="6.75" customHeight="1">
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="109"/>
       <c r="J7" s="48" t="s">
         <v>23</v>
       </c>
@@ -18162,17 +17812,17 @@
       <c r="N7" s="51"/>
     </row>
     <row r="8" spans="1:14" s="45" customFormat="1">
-      <c r="A8" s="113"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="76" t="s">
-        <v>182</v>
+      <c r="A8" s="110"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="75" t="s">
+        <v>159</v>
       </c>
       <c r="K8" s="27"/>
       <c r="M8" s="27" t="s">
@@ -18181,15 +17831,15 @@
       <c r="N8" s="51"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="113"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="112"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="109"/>
       <c r="J9" s="37" t="s">
         <v>25</v>
       </c>
@@ -18199,15 +17849,15 @@
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="113"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="115"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="5"/>
       <c r="K10" s="2"/>
       <c r="L10" s="27" t="s">
@@ -18245,19 +17895,19 @@
       <c r="H12" s="2"/>
       <c r="I12" s="7"/>
       <c r="J12" s="37" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="27" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="M12" s="27"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="5"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -18320,11 +17970,11 @@
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
       <c r="I16" s="51"/>
-      <c r="J16" s="76" t="s">
-        <v>156</v>
+      <c r="J16" s="75" t="s">
+        <v>136</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="46"/>
@@ -18340,13 +17990,13 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="144" t="s">
+      <c r="J17" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="146"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="144"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="5"/>
@@ -18392,13 +18042,13 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="144" t="s">
+      <c r="J20" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="146"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="144"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="5"/>
@@ -18516,39 +18166,39 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:N4"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="9" width="10.125" customWidth="1"/>
-    <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="10.75" customWidth="1"/>
-    <col min="14" max="14" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="9" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.35">
-      <c r="A1" s="154" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="156" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
       <c r="K1" s="16" t="s">
         <v>14</v>
       </c>
@@ -18562,39 +18212,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="148" t="s">
+    <row r="2" spans="1:14" ht="13.05" customHeight="1">
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
       <c r="K2" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="32"/>
-      <c r="M2" s="180" t="s">
+      <c r="M2" s="129" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="32"/>
     </row>
-    <row r="3" spans="1:14" ht="13" customHeight="1">
-      <c r="A3" s="154"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
+    <row r="3" spans="1:14" ht="13.05" customHeight="1">
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
       <c r="K3" s="28">
         <v>43411</v>
       </c>
@@ -18614,17 +18264,17 @@
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
       <c r="I4" s="59"/>
-      <c r="J4" s="144" t="s">
+      <c r="J4" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="146"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="144"/>
     </row>
     <row r="5" spans="1:14" ht="13.35" customHeight="1">
-      <c r="A5" s="113"/>
-      <c r="B5" s="114"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
@@ -18632,7 +18282,7 @@
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
       <c r="I5" s="51"/>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="81" t="s">
         <v>34</v>
       </c>
       <c r="K5" s="46"/>
@@ -18640,66 +18290,66 @@
       <c r="M5" s="46"/>
       <c r="N5" s="51"/>
     </row>
-    <row r="6" spans="1:14" ht="6.85" customHeight="1">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="112"/>
+    <row r="6" spans="1:14" ht="6.9" customHeight="1">
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
       <c r="J6" s="48"/>
       <c r="K6" s="46"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
       <c r="N6" s="51"/>
     </row>
-    <row r="7" spans="1:14" ht="6.85" customHeight="1">
-      <c r="A7" s="113"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
+    <row r="7" spans="1:14" ht="6.9" customHeight="1">
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="109"/>
       <c r="J7" s="48"/>
       <c r="K7" s="46"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
       <c r="N7" s="51"/>
     </row>
-    <row r="8" spans="1:14" ht="28.7" customHeight="1">
-      <c r="A8" s="113"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="144" t="s">
+    <row r="8" spans="1:14" ht="28.65" customHeight="1">
+      <c r="A8" s="110"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="146"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="144"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="113"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="112"/>
       <c r="J9" s="41" t="s">
         <v>35</v>
       </c>
@@ -18709,8 +18359,8 @@
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="113"/>
-      <c r="B10" s="114"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -18726,7 +18376,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="13.35">
+    <row r="11" spans="1:14">
       <c r="A11" s="5"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -18743,7 +18393,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" ht="13.35">
+    <row r="12" spans="1:14">
       <c r="A12" s="5"/>
       <c r="B12" s="2"/>
       <c r="C12" s="9"/>
@@ -18761,7 +18411,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="13.35">
+    <row r="13" spans="1:14">
       <c r="A13" s="5"/>
       <c r="B13" s="11"/>
       <c r="C13" s="9"/>
@@ -18779,7 +18429,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" ht="13.35">
+    <row r="14" spans="1:14">
       <c r="A14" s="5"/>
       <c r="B14" s="2"/>
       <c r="C14" s="9"/>
@@ -18797,10 +18447,10 @@
       <c r="M14" s="2"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="13.35">
+    <row r="15" spans="1:14">
       <c r="A15" s="5"/>
       <c r="B15" s="11" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -18815,7 +18465,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="13.35">
+    <row r="16" spans="1:14">
       <c r="A16" s="5"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9"/>
@@ -18847,7 +18497,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" ht="13.35">
+    <row r="18" spans="1:14">
       <c r="A18" s="5"/>
       <c r="B18" s="2"/>
       <c r="C18" s="9"/>
@@ -18879,7 +18529,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="13.35">
+    <row r="20" spans="1:14">
       <c r="A20" s="5"/>
       <c r="B20" s="2"/>
       <c r="C20" s="9"/>
@@ -18889,13 +18539,13 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="147" t="s">
+      <c r="J20" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="5"/>
@@ -18915,7 +18565,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" ht="13.35">
+    <row r="22" spans="1:14">
       <c r="A22" s="5"/>
       <c r="B22" s="11" t="s">
         <v>22</v>
@@ -18945,13 +18595,13 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="76" t="s">
-        <v>139</v>
+      <c r="J23" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
     </row>
-    <row r="24" spans="1:14" ht="13.35">
+    <row r="24" spans="1:14">
       <c r="A24" s="5"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
@@ -18961,8 +18611,8 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="83" t="s">
-        <v>140</v>
+      <c r="J24" s="81" t="s">
+        <v>120</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -18979,11 +18629,11 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="K25" s="93"/>
-      <c r="L25" s="91"/>
+      <c r="J25" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="90"/>
+      <c r="L25" s="88"/>
       <c r="M25" s="2"/>
       <c r="N25" s="7"/>
     </row>
@@ -18997,13 +18647,13 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
       <c r="M26" s="2"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:14" ht="13.35">
+    <row r="27" spans="1:14">
       <c r="A27" s="5"/>
       <c r="B27" s="11" t="s">
         <v>22</v>
@@ -19015,13 +18665,13 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="83" t="s">
-        <v>142</v>
+      <c r="J27" s="81" t="s">
+        <v>122</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="94" t="s">
+      <c r="N27" s="91" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19035,15 +18685,15 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="147" t="s">
+      <c r="J28" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="147"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="147"/>
-    </row>
-    <row r="29" spans="1:14" ht="13.35">
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="5"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -19103,13 +18753,13 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="147" t="s">
+      <c r="J32" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="147"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="5"/>
@@ -19121,8 +18771,8 @@
       <c r="G33" s="11"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="83" t="s">
-        <v>143</v>
+      <c r="J33" s="81" t="s">
+        <v>123</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -19187,13 +18837,13 @@
       <c r="G37" s="11"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="144" t="s">
+      <c r="J37" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="145"/>
-      <c r="L37" s="145"/>
-      <c r="M37" s="145"/>
-      <c r="N37" s="146"/>
+      <c r="K37" s="143"/>
+      <c r="L37" s="143"/>
+      <c r="M37" s="143"/>
+      <c r="N37" s="144"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="5"/>
@@ -19205,8 +18855,8 @@
       <c r="G38" s="11"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="76" t="s">
-        <v>144</v>
+      <c r="J38" s="75" t="s">
+        <v>124</v>
       </c>
       <c r="K38" s="46"/>
       <c r="L38" s="46"/>
@@ -19224,7 +18874,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="48" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="K39" s="46"/>
       <c r="L39" s="46"/>
@@ -19242,7 +18892,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="48" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="K40" s="46"/>
       <c r="L40" s="46"/>
@@ -19260,7 +18910,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="48" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="K41" s="46"/>
       <c r="L41" s="46"/>
@@ -19277,8 +18927,8 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="76" t="s">
-        <v>161</v>
+      <c r="J42" s="75" t="s">
+        <v>141</v>
       </c>
       <c r="K42" s="46"/>
       <c r="L42" s="46"/>
@@ -19295,8 +18945,8 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="76" t="s">
-        <v>162</v>
+      <c r="J43" s="75" t="s">
+        <v>142</v>
       </c>
       <c r="K43" s="46"/>
       <c r="L43" s="46"/>
@@ -19314,7 +18964,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="48" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="K44" s="46"/>
       <c r="L44" s="46"/>
@@ -19332,7 +18982,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="48" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
@@ -19350,7 +19000,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="48" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K46" s="46"/>
       <c r="L46" s="46"/>
@@ -19368,7 +19018,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="48" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="K47" s="46"/>
       <c r="L47" s="46"/>
@@ -19386,7 +19036,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="48" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="K48" s="46"/>
       <c r="L48" s="46"/>
@@ -19404,7 +19054,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="48" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="K49" s="46"/>
       <c r="L49" s="46"/>
@@ -19422,7 +19072,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="48" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="K50" s="46"/>
       <c r="L50" s="46"/>
@@ -19440,7 +19090,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="48" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="K51" s="46"/>
       <c r="L51" s="46"/>
@@ -19496,7 +19146,7 @@
       <c r="N54" s="14"/>
     </row>
     <row r="66" spans="12:12">
-      <c r="L66" s="90"/>
+      <c r="L66" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -19536,15 +19186,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>313267</xdr:colOff>
+                    <xdr:colOff>312420</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>143933</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>660400</xdr:colOff>
+                    <xdr:colOff>662940</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>110067</xdr:rowOff>
+                    <xdr:rowOff>106680</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19558,13 +19208,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>694267</xdr:colOff>
+                    <xdr:colOff>693420</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>42333</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:colOff>175260</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -19582,56 +19232,56 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AI96"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="50.25" style="45" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="50.21875" style="45" customWidth="1"/>
     <col min="6" max="6" width="25" style="45" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="45" customWidth="1"/>
-    <col min="8" max="8" width="2.75" style="45" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="45" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="6.25" style="45" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="45" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="8.875" style="45" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="0.125" style="45" customWidth="1"/>
-    <col min="15" max="15" width="9.125" style="45"/>
-    <col min="16" max="16" width="9.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.125" style="45"/>
-    <col min="19" max="19" width="11.375" style="45" customWidth="1"/>
-    <col min="20" max="16384" width="9.125" style="45"/>
+    <col min="7" max="7" width="14.21875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="2.77734375" style="45" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="45" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" style="45" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="45" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="45" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0.109375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="45"/>
+    <col min="16" max="16" width="9.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" style="45"/>
+    <col min="19" max="19" width="11.33203125" style="45" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.35">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:35">
+      <c r="A1" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="169" t="s">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
       <c r="P1" s="61" t="s">
         <v>14</v>
       </c>
@@ -19646,46 +19296,46 @@
       </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="170" t="s">
+      <c r="A2" s="161"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="168" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="70" t="s">
         <v>47</v>
-      </c>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="70" t="s">
-        <v>48</v>
       </c>
       <c r="Q2" s="70"/>
       <c r="R2" s="70"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="166"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
       <c r="P3" s="71">
         <v>43411</v>
       </c>
@@ -19708,13 +19358,13 @@
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
       <c r="N4" s="59"/>
-      <c r="O4" s="147" t="s">
+      <c r="O4" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="145"/>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="48"/>
@@ -19761,7 +19411,7 @@
       <c r="S6" s="51"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="113"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
@@ -19775,14 +19425,16 @@
       <c r="L7" s="49"/>
       <c r="M7" s="49"/>
       <c r="N7" s="51"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="51"/>
+      <c r="O7" s="178" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="180"/>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="113"/>
+      <c r="A8" s="110"/>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
@@ -19795,18 +19447,18 @@
       <c r="L8" s="49"/>
       <c r="M8" s="49"/>
       <c r="N8" s="51"/>
-      <c r="O8" s="147" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
+      <c r="O8" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="51"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="113"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
@@ -19818,102 +19470,102 @@
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
       <c r="N9" s="51"/>
-      <c r="O9" s="80" t="s">
-        <v>49</v>
+      <c r="O9" s="75" t="s">
+        <v>188</v>
       </c>
       <c r="P9" s="50"/>
       <c r="Q9" s="49"/>
       <c r="R9" s="49"/>
       <c r="S9" s="51"/>
     </row>
-    <row r="10" spans="1:35" ht="10.7" customHeight="1">
-      <c r="A10" s="113"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="112"/>
+    <row r="10" spans="1:35" ht="10.65" customHeight="1">
+      <c r="A10" s="110"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
       <c r="M10" s="49"/>
       <c r="N10" s="51"/>
-      <c r="O10" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="50"/>
+      <c r="O10" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="49"/>
       <c r="Q10" s="49"/>
       <c r="R10" s="49"/>
       <c r="S10" s="51"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="113"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="109"/>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="76" t="s">
-        <v>51</v>
-      </c>
+      <c r="O11" s="80"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="49"/>
       <c r="R11" s="49"/>
       <c r="S11" s="51"/>
     </row>
-    <row r="12" spans="1:35" ht="16" customHeight="1">
-      <c r="A12" s="113"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="112"/>
+    <row r="12" spans="1:35" ht="16.05" customHeight="1">
+      <c r="A12" s="110"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="109"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
       <c r="M12" s="49"/>
       <c r="N12" s="51"/>
-      <c r="O12" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="51"/>
+      <c r="O12" s="142" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="144"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="159"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
       <c r="M13" s="49"/>
       <c r="N13" s="51"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
+      <c r="O13" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="50"/>
       <c r="Q13" s="49"/>
       <c r="R13" s="49"/>
       <c r="S13" s="51"/>
@@ -19921,48 +19573,50 @@
       <c r="U13" s="49"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="159"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
       <c r="I14" s="49"/>
       <c r="J14" s="49"/>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
       <c r="M14" s="49"/>
       <c r="N14" s="51"/>
-      <c r="O14" s="49"/>
+      <c r="O14" s="82" t="s">
+        <v>189</v>
+      </c>
       <c r="P14" s="49"/>
       <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="81"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="51"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="159"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
       <c r="M15" s="49"/>
       <c r="N15" s="51"/>
-      <c r="O15" s="144" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="145"/>
-      <c r="S15" s="146"/>
+      <c r="O15" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="51"/>
       <c r="W15" s="48"/>
       <c r="X15" s="49"/>
       <c r="Y15" s="49"/>
@@ -19978,24 +19632,22 @@
       <c r="AI15" s="49"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="159"/>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
+      <c r="A16" s="157"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
       <c r="I16" s="49"/>
       <c r="J16" s="49"/>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
       <c r="M16" s="49"/>
       <c r="N16" s="51"/>
-      <c r="O16" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="50"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="49"/>
       <c r="Q16" s="49"/>
       <c r="R16" s="49"/>
       <c r="S16" s="51"/>
@@ -20014,26 +19666,24 @@
       <c r="AI16" s="49"/>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" s="159"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
       <c r="M17" s="49"/>
       <c r="N17" s="51"/>
-      <c r="O17" s="84" t="s">
-        <v>60</v>
-      </c>
+      <c r="O17" s="55"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="49"/>
-      <c r="R17" s="63"/>
+      <c r="R17" s="49"/>
       <c r="S17" s="51"/>
       <c r="W17" s="48"/>
       <c r="X17" s="49"/>
@@ -20050,23 +19700,21 @@
       <c r="AI17" s="49"/>
     </row>
     <row r="18" spans="1:35">
-      <c r="A18" s="159"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
       <c r="I18" s="55"/>
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
       <c r="M18" s="49"/>
       <c r="N18" s="51"/>
-      <c r="O18" s="52" t="s">
-        <v>65</v>
-      </c>
+      <c r="O18" s="49"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="49"/>
       <c r="R18" s="49"/>
@@ -20086,23 +19734,21 @@
       <c r="AI18" s="49"/>
     </row>
     <row r="19" spans="1:35">
-      <c r="A19" s="159"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
       <c r="M19" s="49"/>
       <c r="N19" s="51"/>
-      <c r="O19" s="83" t="s">
-        <v>69</v>
-      </c>
+      <c r="O19" s="55"/>
       <c r="P19" s="49"/>
       <c r="Q19" s="49"/>
       <c r="R19" s="49"/>
@@ -20122,23 +19768,21 @@
       <c r="AI19" s="49"/>
     </row>
     <row r="20" spans="1:35">
-      <c r="A20" s="159"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
       <c r="I20" s="49"/>
       <c r="J20" s="49"/>
       <c r="K20" s="49"/>
       <c r="L20" s="49"/>
       <c r="M20" s="49"/>
       <c r="N20" s="51"/>
-      <c r="O20" s="55" t="s">
-        <v>73</v>
-      </c>
+      <c r="O20" s="80"/>
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
       <c r="R20" s="49"/>
@@ -20160,23 +19804,21 @@
       <c r="AI20" s="49"/>
     </row>
     <row r="21" spans="1:35">
-      <c r="A21" s="159"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
       <c r="M21" s="49"/>
       <c r="N21" s="51"/>
-      <c r="O21" s="49" t="s">
-        <v>74</v>
-      </c>
+      <c r="O21" s="49"/>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
       <c r="R21" s="49"/>
@@ -20199,21 +19841,19 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="48"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
       <c r="L22" s="49"/>
       <c r="M22" s="49"/>
       <c r="N22" s="51"/>
-      <c r="O22" s="82" t="s">
-        <v>75</v>
-      </c>
+      <c r="O22" s="55"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
       <c r="R22" s="49"/>
@@ -20234,25 +19874,25 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="48"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="79"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
       <c r="K23" s="49"/>
       <c r="L23" s="49"/>
       <c r="M23" s="49"/>
       <c r="N23" s="51"/>
-      <c r="O23" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="51"/>
+      <c r="O23" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
+      <c r="S23" s="144"/>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="48"/>
@@ -20269,8 +19909,8 @@
       <c r="L24" s="49"/>
       <c r="M24" s="49"/>
       <c r="N24" s="51"/>
-      <c r="O24" s="49" t="s">
-        <v>77</v>
+      <c r="O24" s="81" t="s">
+        <v>31</v>
       </c>
       <c r="P24" s="49"/>
       <c r="Q24" s="49"/>
@@ -20281,21 +19921,19 @@
     <row r="25" spans="1:35">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
       <c r="M25" s="49"/>
       <c r="N25" s="49"/>
-      <c r="O25" s="55" t="s">
-        <v>78</v>
-      </c>
+      <c r="O25" s="48"/>
       <c r="P25" s="49"/>
       <c r="Q25" s="49"/>
       <c r="R25" s="49"/>
@@ -20309,162 +19947,158 @@
       <c r="E26" s="49"/>
       <c r="F26" s="49"/>
       <c r="G26" s="49"/>
-      <c r="H26" s="121"/>
+      <c r="H26" s="118"/>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="122"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="119"/>
       <c r="N26" s="49"/>
-      <c r="O26" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="51"/>
-    </row>
-    <row r="27" spans="1:35" ht="15.35">
+      <c r="O26" s="142" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="143"/>
+      <c r="S26" s="144"/>
+    </row>
+    <row r="27" spans="1:35" ht="15">
       <c r="A27" s="48"/>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="F27" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="106" t="s">
+      <c r="G27" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="106" t="s">
+      <c r="H27" s="111"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="72"/>
+    </row>
+    <row r="28" spans="1:35" ht="15">
+      <c r="A28" s="48"/>
+      <c r="B28" s="103">
+        <v>1235965</v>
+      </c>
+      <c r="C28" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="106" t="s">
+      <c r="D28" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="114"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="51"/>
-    </row>
-    <row r="28" spans="1:35" ht="15.35">
-      <c r="A28" s="48"/>
-      <c r="B28" s="106">
-        <v>1235965</v>
-      </c>
-      <c r="C28" s="107" t="s">
+      <c r="E28" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="107" t="s">
+      <c r="G28" s="106">
+        <v>43292</v>
+      </c>
+      <c r="H28" s="125"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="182" t="s">
+        <v>187</v>
+      </c>
+      <c r="P28" s="183"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="72"/>
+    </row>
+    <row r="29" spans="1:35" ht="15">
+      <c r="A29" s="48"/>
+      <c r="B29" s="103">
+        <v>1236548</v>
+      </c>
+      <c r="C29" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="108" t="s">
+      <c r="D29" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="109">
-        <v>43292</v>
-      </c>
-      <c r="H28" s="128"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="51"/>
-    </row>
-    <row r="29" spans="1:35" ht="15.35">
-      <c r="A29" s="48"/>
-      <c r="B29" s="106">
-        <v>1236548</v>
-      </c>
-      <c r="C29" s="107" t="s">
+      <c r="F29" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="106">
+        <v>43293</v>
+      </c>
+      <c r="H29" s="125"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="181"/>
+    </row>
+    <row r="30" spans="1:35" ht="15">
+      <c r="A30" s="48"/>
+      <c r="B30" s="103">
+        <v>1335468</v>
+      </c>
+      <c r="C30" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="107" t="s">
+      <c r="D30" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="108" t="s">
+      <c r="F30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="109">
-        <v>43293</v>
-      </c>
-      <c r="H29" s="128"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="51"/>
-    </row>
-    <row r="30" spans="1:35" ht="15.35">
-      <c r="A30" s="48"/>
-      <c r="B30" s="106">
-        <v>1335468</v>
-      </c>
-      <c r="C30" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="109">
+      <c r="G30" s="106">
         <v>43294</v>
       </c>
-      <c r="H30" s="121"/>
+      <c r="H30" s="118"/>
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
       <c r="K30" s="49"/>
       <c r="L30" s="49"/>
       <c r="M30" s="49"/>
       <c r="N30" s="51"/>
-      <c r="O30" s="82" t="s">
-        <v>178</v>
-      </c>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="R30" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="S30" s="51"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="181"/>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="48"/>
@@ -20481,35 +20115,29 @@
       <c r="L31" s="49"/>
       <c r="M31" s="49"/>
       <c r="N31" s="49"/>
-      <c r="O31" s="147" t="s">
-        <v>18</v>
-      </c>
-      <c r="P31" s="147"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="147"/>
-      <c r="S31" s="147"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="181"/>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="48"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="79"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
       <c r="H32" s="49"/>
       <c r="I32" s="49"/>
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
       <c r="M32" s="49"/>
       <c r="N32" s="49"/>
-      <c r="O32" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="51"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="73"/>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="48"/>
@@ -20526,11 +20154,11 @@
       <c r="L33" s="49"/>
       <c r="M33" s="49"/>
       <c r="N33" s="49"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="51"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="73"/>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="48"/>
@@ -20547,11 +20175,11 @@
       <c r="L34" s="49"/>
       <c r="M34" s="49"/>
       <c r="N34" s="49"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="51"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="73"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="48"/>
@@ -20568,11 +20196,11 @@
       <c r="L35" s="49"/>
       <c r="M35" s="49"/>
       <c r="N35" s="49"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="51"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="73"/>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="48"/>
@@ -20589,198 +20217,170 @@
       <c r="L36" s="49"/>
       <c r="M36" s="49"/>
       <c r="N36" s="49"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="51"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="73"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="158"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
       <c r="J37" s="49"/>
       <c r="K37" s="49"/>
       <c r="L37" s="49"/>
       <c r="M37" s="49"/>
       <c r="N37" s="49"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="51"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="73"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="158"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
       <c r="J38" s="49"/>
       <c r="K38" s="49"/>
       <c r="L38" s="49"/>
       <c r="M38" s="49"/>
       <c r="N38" s="49"/>
-      <c r="O38" s="147" t="s">
-        <v>32</v>
-      </c>
-      <c r="P38" s="147"/>
-      <c r="Q38" s="147"/>
-      <c r="R38" s="147"/>
-      <c r="S38" s="147"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="73"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="158"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
       <c r="J39" s="49"/>
       <c r="K39" s="49"/>
       <c r="L39" s="49"/>
       <c r="M39" s="49"/>
       <c r="N39" s="49"/>
-      <c r="O39" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="72"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="73"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="158"/>
-      <c r="B40" s="158"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
       <c r="J40" s="49"/>
       <c r="K40" s="49"/>
       <c r="L40" s="49"/>
       <c r="M40" s="49"/>
       <c r="N40" s="51"/>
-      <c r="O40" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85"/>
       <c r="S40" s="72"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="158"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="O41" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="85"/>
       <c r="S41" s="73"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="158"/>
-      <c r="B42" s="158"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
       <c r="J42" s="49"/>
       <c r="K42" s="49"/>
       <c r="L42" s="49"/>
       <c r="M42" s="49"/>
       <c r="N42" s="51"/>
-      <c r="O42" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
       <c r="S42" s="73"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="158"/>
-      <c r="B43" s="158"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
       <c r="J43" s="49"/>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
       <c r="M43" s="49"/>
       <c r="N43" s="51"/>
-      <c r="O43" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="72"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="73"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="158"/>
-      <c r="B44" s="158"/>
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="158"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="158"/>
-      <c r="I44" s="158"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
       <c r="J44" s="49"/>
       <c r="K44" s="49"/>
       <c r="L44" s="49"/>
       <c r="M44" s="49"/>
       <c r="N44" s="51"/>
-      <c r="O44" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
       <c r="S44" s="73"/>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="48"/>
-      <c r="B45" s="49"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="49"/>
       <c r="D45" s="49"/>
       <c r="E45" s="49"/>
@@ -20793,17 +20393,15 @@
       <c r="L45" s="49"/>
       <c r="M45" s="49"/>
       <c r="N45" s="51"/>
-      <c r="O45" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="87"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
       <c r="S45" s="73"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="48"/>
-      <c r="B46" s="49"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="49"/>
       <c r="D46" s="49"/>
       <c r="E46" s="49"/>
@@ -20816,17 +20414,15 @@
       <c r="L46" s="49"/>
       <c r="M46" s="49"/>
       <c r="N46" s="51"/>
-      <c r="O46" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
       <c r="S46" s="73"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="48"/>
-      <c r="B47" s="49"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="49"/>
       <c r="D47" s="49"/>
       <c r="E47" s="49"/>
@@ -20839,15 +20435,15 @@
       <c r="L47" s="49"/>
       <c r="M47" s="49"/>
       <c r="N47" s="51"/>
-      <c r="O47" s="86"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="85"/>
+      <c r="Q47" s="85"/>
+      <c r="R47" s="85"/>
       <c r="S47" s="73"/>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="48"/>
-      <c r="B48" s="49"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="49"/>
       <c r="D48" s="49"/>
       <c r="E48" s="49"/>
@@ -20868,7 +20464,7 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="49"/>
       <c r="D49" s="49"/>
       <c r="E49" s="49"/>
@@ -21055,7 +20651,95 @@
       <c r="R57" s="57"/>
       <c r="S57" s="58"/>
     </row>
-    <row r="75" spans="4:12">
+    <row r="60" spans="1:19">
+      <c r="A60" s="156"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="156"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="156"/>
+      <c r="B62" s="156"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="156"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="156"/>
+      <c r="B63" s="156"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="156"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="156"/>
+      <c r="B64" s="156"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
+      <c r="I64" s="156"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="156"/>
+      <c r="B65" s="156"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="156"/>
+      <c r="I65" s="156"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="156"/>
+      <c r="B66" s="156"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
+      <c r="I66" s="156"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="156"/>
+      <c r="B67" s="156"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="156"/>
+      <c r="I67" s="156"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="D75" s="49"/>
       <c r="E75" s="49"/>
       <c r="F75" s="49"/>
@@ -21066,7 +20750,7 @@
       <c r="K75" s="49"/>
       <c r="L75" s="49"/>
     </row>
-    <row r="76" spans="4:12">
+    <row r="76" spans="1:12">
       <c r="D76" s="49"/>
       <c r="E76" s="49"/>
       <c r="F76" s="49"/>
@@ -21077,7 +20761,7 @@
       <c r="K76" s="49"/>
       <c r="L76" s="49"/>
     </row>
-    <row r="77" spans="4:12">
+    <row r="77" spans="1:12">
       <c r="D77" s="49"/>
       <c r="E77" s="49"/>
       <c r="F77" s="49"/>
@@ -21088,7 +20772,7 @@
       <c r="K77" s="49"/>
       <c r="L77" s="49"/>
     </row>
-    <row r="78" spans="4:12">
+    <row r="78" spans="1:12">
       <c r="D78" s="49"/>
       <c r="E78" s="49"/>
       <c r="F78" s="49"/>
@@ -21099,7 +20783,7 @@
       <c r="K78" s="49"/>
       <c r="L78" s="49"/>
     </row>
-    <row r="79" spans="4:12">
+    <row r="79" spans="1:12">
       <c r="D79" s="49"/>
       <c r="E79" s="49"/>
       <c r="F79" s="49"/>
@@ -21110,7 +20794,7 @@
       <c r="K79" s="49"/>
       <c r="L79" s="49"/>
     </row>
-    <row r="80" spans="4:12">
+    <row r="80" spans="1:12">
       <c r="D80" s="49"/>
       <c r="E80" s="49"/>
       <c r="F80" s="49"/>
@@ -21299,16 +20983,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="A37:I44"/>
-    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="A60:I67"/>
     <mergeCell ref="A13:H21"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="F1:O1"/>
     <mergeCell ref="F2:O3"/>
     <mergeCell ref="O4:S4"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="O26:S26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q30" location="'Main Screen'!A1" display="Cancel "/>
@@ -21329,13 +21013,13 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
                     <xdr:row>103</xdr:row>
-                    <xdr:rowOff>8467</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1193800</xdr:colOff>
+                    <xdr:colOff>1196340</xdr:colOff>
                     <xdr:row>104</xdr:row>
-                    <xdr:rowOff>67733</xdr:rowOff>
+                    <xdr:rowOff>68580</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21349,15 +21033,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>135467</xdr:colOff>
+                    <xdr:colOff>137160</xdr:colOff>
                     <xdr:row>102</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>93133</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>104</xdr:row>
-                    <xdr:rowOff>93133</xdr:rowOff>
+                    <xdr:rowOff>91440</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21373,13 +21057,13 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>96</xdr:row>
-                    <xdr:rowOff>93133</xdr:rowOff>
+                    <xdr:rowOff>91440</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>97</xdr:row>
-                    <xdr:rowOff>118533</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21401,7 +21085,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>99</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>99060</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21415,9 +21099,9 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:colOff>403860</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>160867</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
@@ -21443,9 +21127,9 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1337733</xdr:colOff>
+                    <xdr:colOff>1341120</xdr:colOff>
                     <xdr:row>105</xdr:row>
-                    <xdr:rowOff>42333</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -21459,13 +21143,13 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>804333</xdr:colOff>
+                    <xdr:colOff>807720</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>16933</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>270933</xdr:colOff>
+                    <xdr:colOff>274320</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -21483,56 +21167,56 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AI96"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="50.25" style="45" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="50.21875" style="45" customWidth="1"/>
     <col min="6" max="6" width="25" style="45" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="45" customWidth="1"/>
-    <col min="8" max="8" width="2.75" style="45" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="45" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="6.25" style="45" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="45" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="8.875" style="45" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="0.125" style="45" customWidth="1"/>
-    <col min="15" max="15" width="9.125" style="45"/>
-    <col min="16" max="16" width="9.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.125" style="45"/>
-    <col min="19" max="19" width="11.375" style="45" customWidth="1"/>
-    <col min="20" max="16384" width="9.125" style="45"/>
+    <col min="7" max="7" width="14.21875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="2.77734375" style="45" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="45" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" style="45" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="45" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="45" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0.109375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="45"/>
+    <col min="16" max="16" width="9.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" style="45"/>
+    <col min="19" max="19" width="11.33203125" style="45" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.35">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:35">
+      <c r="A1" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="169" t="s">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
       <c r="P1" s="61" t="s">
         <v>14</v>
       </c>
@@ -21547,46 +21231,46 @@
       </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="170" t="s">
+      <c r="A2" s="161"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="168" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="70" t="s">
         <v>47</v>
-      </c>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="70" t="s">
-        <v>48</v>
       </c>
       <c r="Q2" s="70"/>
       <c r="R2" s="70"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="166"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
       <c r="P3" s="71">
         <v>43411</v>
       </c>
@@ -21609,13 +21293,13 @@
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
       <c r="N4" s="59"/>
-      <c r="O4" s="147" t="s">
+      <c r="O4" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="147"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="145"/>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="48"/>
@@ -21648,7 +21332,7 @@
       <c r="E6" s="49"/>
       <c r="F6" s="49"/>
       <c r="G6" s="49"/>
-      <c r="H6" s="158"/>
+      <c r="H6" s="156"/>
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
@@ -21662,159 +21346,161 @@
       <c r="S6" s="51"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="113"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
       <c r="G7" s="49"/>
-      <c r="H7" s="158"/>
+      <c r="H7" s="156"/>
       <c r="I7" s="49"/>
       <c r="J7" s="49"/>
       <c r="K7" s="49"/>
       <c r="L7" s="49"/>
       <c r="M7" s="49"/>
       <c r="N7" s="51"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="51"/>
+      <c r="O7" s="178" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="180"/>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="113"/>
+      <c r="A8" s="110"/>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
-      <c r="H8" s="158"/>
+      <c r="H8" s="156"/>
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
       <c r="K8" s="49"/>
       <c r="L8" s="49"/>
       <c r="M8" s="49"/>
       <c r="N8" s="51"/>
-      <c r="O8" s="147" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
+      <c r="O8" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="51"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="113"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
-      <c r="H9" s="158"/>
+      <c r="H9" s="156"/>
       <c r="I9" s="46"/>
       <c r="J9" s="51"/>
       <c r="K9" s="49"/>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
       <c r="N9" s="51"/>
-      <c r="O9" s="80" t="s">
-        <v>49</v>
+      <c r="O9" s="75" t="s">
+        <v>193</v>
       </c>
       <c r="P9" s="50"/>
       <c r="Q9" s="49"/>
       <c r="R9" s="49"/>
       <c r="S9" s="51"/>
     </row>
-    <row r="10" spans="1:35" ht="10.7" customHeight="1">
-      <c r="A10" s="113"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="112"/>
+    <row r="10" spans="1:35" ht="10.65" customHeight="1">
+      <c r="A10" s="110"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
       <c r="M10" s="49"/>
       <c r="N10" s="51"/>
-      <c r="O10" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="50"/>
+      <c r="O10" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="49"/>
       <c r="Q10" s="49"/>
       <c r="R10" s="49"/>
       <c r="S10" s="51"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="113"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="109"/>
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="76" t="s">
-        <v>51</v>
-      </c>
+      <c r="O11" s="80"/>
       <c r="P11" s="49"/>
       <c r="Q11" s="49"/>
       <c r="R11" s="49"/>
       <c r="S11" s="51"/>
     </row>
-    <row r="12" spans="1:35" ht="16" customHeight="1">
-      <c r="A12" s="113"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="112"/>
+    <row r="12" spans="1:35" ht="16.05" customHeight="1">
+      <c r="A12" s="110"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="109"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
       <c r="M12" s="49"/>
       <c r="N12" s="51"/>
-      <c r="O12" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="51"/>
+      <c r="O12" s="142" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="144"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="159"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
       <c r="M13" s="49"/>
       <c r="N13" s="51"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
+      <c r="O13" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="50"/>
       <c r="Q13" s="49"/>
       <c r="R13" s="49"/>
       <c r="S13" s="51"/>
@@ -21822,48 +21508,50 @@
       <c r="U13" s="49"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="159"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="158"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="156"/>
       <c r="I14" s="49"/>
       <c r="J14" s="49"/>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
       <c r="M14" s="49"/>
       <c r="N14" s="51"/>
-      <c r="O14" s="49"/>
+      <c r="O14" s="82" t="s">
+        <v>57</v>
+      </c>
       <c r="P14" s="49"/>
       <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="81"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="51"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="159"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="158"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="156"/>
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
       <c r="M15" s="49"/>
       <c r="N15" s="51"/>
-      <c r="O15" s="144" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="145"/>
-      <c r="S15" s="146"/>
+      <c r="O15" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="51"/>
       <c r="W15" s="48"/>
       <c r="X15" s="49"/>
       <c r="Y15" s="49"/>
@@ -21879,24 +21567,24 @@
       <c r="AI15" s="49"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="159"/>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="158"/>
+      <c r="A16" s="157"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="156"/>
       <c r="I16" s="49"/>
       <c r="J16" s="49"/>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
       <c r="M16" s="49"/>
       <c r="N16" s="51"/>
-      <c r="O16" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="50"/>
+      <c r="O16" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="P16" s="49"/>
       <c r="Q16" s="49"/>
       <c r="R16" s="49"/>
       <c r="S16" s="51"/>
@@ -21915,26 +21603,26 @@
       <c r="AI16" s="49"/>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" s="159"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="158"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="156"/>
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
       <c r="M17" s="49"/>
       <c r="N17" s="51"/>
-      <c r="O17" s="84" t="s">
-        <v>60</v>
+      <c r="O17" s="55" t="s">
+        <v>184</v>
       </c>
       <c r="P17" s="49"/>
       <c r="Q17" s="49"/>
-      <c r="R17" s="63"/>
+      <c r="R17" s="49"/>
       <c r="S17" s="51"/>
       <c r="W17" s="48"/>
       <c r="X17" s="49"/>
@@ -21951,22 +21639,22 @@
       <c r="AI17" s="49"/>
     </row>
     <row r="18" spans="1:35">
-      <c r="A18" s="159"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="158"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="156"/>
       <c r="I18" s="55"/>
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
       <c r="M18" s="49"/>
       <c r="N18" s="51"/>
-      <c r="O18" s="52" t="s">
-        <v>65</v>
+      <c r="O18" s="80" t="s">
+        <v>69</v>
       </c>
       <c r="P18" s="49"/>
       <c r="Q18" s="49"/>
@@ -21987,13 +21675,13 @@
       <c r="AI18" s="49"/>
     </row>
     <row r="19" spans="1:35">
-      <c r="A19" s="159"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
@@ -22001,8 +21689,8 @@
       <c r="L19" s="49"/>
       <c r="M19" s="49"/>
       <c r="N19" s="51"/>
-      <c r="O19" s="83" t="s">
-        <v>69</v>
+      <c r="O19" s="49" t="s">
+        <v>70</v>
       </c>
       <c r="P19" s="49"/>
       <c r="Q19" s="49"/>
@@ -22023,13 +21711,13 @@
       <c r="AI19" s="49"/>
     </row>
     <row r="20" spans="1:35">
-      <c r="A20" s="159"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="49"/>
       <c r="I20" s="49"/>
       <c r="J20" s="49"/>
@@ -22037,9 +21725,7 @@
       <c r="L20" s="49"/>
       <c r="M20" s="49"/>
       <c r="N20" s="51"/>
-      <c r="O20" s="55" t="s">
-        <v>73</v>
-      </c>
+      <c r="O20" s="49"/>
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
       <c r="R20" s="49"/>
@@ -22061,13 +21747,13 @@
       <c r="AI20" s="49"/>
     </row>
     <row r="21" spans="1:35">
-      <c r="A21" s="159"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
       <c r="H21" s="49"/>
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
@@ -22075,14 +21761,12 @@
       <c r="L21" s="49"/>
       <c r="M21" s="49"/>
       <c r="N21" s="51"/>
-      <c r="O21" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="49"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="187"/>
+      <c r="T21" s="77"/>
       <c r="U21" s="49"/>
       <c r="W21" s="48"/>
       <c r="X21" s="49"/>
@@ -22099,26 +21783,25 @@
       <c r="AI21" s="49"/>
     </row>
     <row r="22" spans="1:35">
-      <c r="A22" s="159"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
       <c r="L22" s="49"/>
       <c r="M22" s="49"/>
       <c r="N22" s="51"/>
-      <c r="O22" s="82" t="s">
-        <v>75</v>
-      </c>
+      <c r="O22" s="49"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
       <c r="R22" s="49"/>
-      <c r="S22" s="51"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="49"/>
       <c r="W22" s="48"/>
       <c r="X22" s="49"/>
       <c r="Y22" s="49"/>
@@ -22134,35 +21817,35 @@
       <c r="AI22" s="49"/>
     </row>
     <row r="23" spans="1:35">
-      <c r="A23" s="159"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
       <c r="K23" s="49"/>
       <c r="L23" s="49"/>
       <c r="M23" s="49"/>
       <c r="N23" s="51"/>
-      <c r="O23" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="51"/>
+      <c r="O23" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
+      <c r="S23" s="144"/>
     </row>
     <row r="24" spans="1:35">
-      <c r="A24" s="159"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
+      <c r="A24" s="157"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
       <c r="H24" s="49"/>
       <c r="I24" s="49"/>
       <c r="J24" s="49"/>
@@ -22170,8 +21853,8 @@
       <c r="L24" s="49"/>
       <c r="M24" s="49"/>
       <c r="N24" s="51"/>
-      <c r="O24" s="49" t="s">
-        <v>77</v>
+      <c r="O24" s="81" t="s">
+        <v>31</v>
       </c>
       <c r="P24" s="49"/>
       <c r="Q24" s="49"/>
@@ -22182,21 +21865,19 @@
     <row r="25" spans="1:35">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
       <c r="K25" s="49"/>
       <c r="L25" s="49"/>
       <c r="M25" s="49"/>
       <c r="N25" s="49"/>
-      <c r="O25" s="55" t="s">
-        <v>78</v>
-      </c>
+      <c r="O25" s="48"/>
       <c r="P25" s="49"/>
       <c r="Q25" s="49"/>
       <c r="R25" s="49"/>
@@ -22210,162 +21891,160 @@
       <c r="E26" s="49"/>
       <c r="F26" s="49"/>
       <c r="G26" s="49"/>
-      <c r="H26" s="121"/>
+      <c r="H26" s="118"/>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="122"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="119"/>
       <c r="N26" s="49"/>
-      <c r="O26" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="51"/>
-    </row>
-    <row r="27" spans="1:35" ht="15.35">
+      <c r="O26" s="184" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="185"/>
+      <c r="Q26" s="185"/>
+      <c r="R26" s="185"/>
+      <c r="S26" s="186"/>
+    </row>
+    <row r="27" spans="1:35" ht="15">
       <c r="A27" s="48"/>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="F27" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="106" t="s">
+      <c r="G27" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="106" t="s">
+      <c r="H27" s="111"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="72"/>
+    </row>
+    <row r="28" spans="1:35" ht="15">
+      <c r="A28" s="48"/>
+      <c r="B28" s="103">
+        <v>1235965</v>
+      </c>
+      <c r="C28" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="106" t="s">
+      <c r="D28" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="114"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="51"/>
-    </row>
-    <row r="28" spans="1:35" ht="15.35">
-      <c r="A28" s="48"/>
-      <c r="B28" s="106">
-        <v>1235965</v>
-      </c>
-      <c r="C28" s="107" t="s">
+      <c r="E28" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="107" t="s">
+      <c r="G28" s="106">
+        <v>43292</v>
+      </c>
+      <c r="H28" s="125"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="72"/>
+    </row>
+    <row r="29" spans="1:35" ht="15">
+      <c r="A29" s="48"/>
+      <c r="B29" s="103">
+        <v>1236548</v>
+      </c>
+      <c r="C29" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="108" t="s">
+      <c r="D29" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="109">
-        <v>43292</v>
-      </c>
-      <c r="H28" s="128"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="51"/>
-    </row>
-    <row r="29" spans="1:35" ht="15.35">
-      <c r="A29" s="48"/>
-      <c r="B29" s="106">
-        <v>1236548</v>
-      </c>
-      <c r="C29" s="107" t="s">
+      <c r="F29" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="106">
+        <v>43293</v>
+      </c>
+      <c r="H29" s="125"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="181"/>
+    </row>
+    <row r="30" spans="1:35" ht="15">
+      <c r="A30" s="48"/>
+      <c r="B30" s="103">
+        <v>1335468</v>
+      </c>
+      <c r="C30" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="107" t="s">
+      <c r="D30" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="108" t="s">
+      <c r="F30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="109">
-        <v>43293</v>
-      </c>
-      <c r="H29" s="128"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="51"/>
-    </row>
-    <row r="30" spans="1:35" ht="15.35">
-      <c r="A30" s="48"/>
-      <c r="B30" s="106">
-        <v>1335468</v>
-      </c>
-      <c r="C30" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="109">
+      <c r="G30" s="106">
         <v>43294</v>
       </c>
-      <c r="H30" s="121"/>
+      <c r="H30" s="118"/>
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
       <c r="K30" s="49"/>
       <c r="L30" s="49"/>
       <c r="M30" s="49"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="82" t="s">
-        <v>178</v>
-      </c>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="R30" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="S30" s="51"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="181"/>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="48"/>
@@ -22382,37 +22061,37 @@
       <c r="L31" s="49"/>
       <c r="M31" s="49"/>
       <c r="N31" s="49"/>
-      <c r="O31" s="147" t="s">
-        <v>18</v>
-      </c>
-      <c r="P31" s="147"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="147"/>
-      <c r="S31" s="147"/>
+      <c r="O31" s="182" t="s">
+        <v>183</v>
+      </c>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="181"/>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="48"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="79"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
       <c r="H32" s="49"/>
       <c r="I32" s="49"/>
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
       <c r="M32" s="49"/>
       <c r="N32" s="49"/>
-      <c r="O32" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="51"/>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="O32" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="181"/>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
@@ -22427,13 +22106,13 @@
       <c r="L33" s="49"/>
       <c r="M33" s="49"/>
       <c r="N33" s="49"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="51"/>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="O33" s="84"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="181"/>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
       <c r="C34" s="49"/>
@@ -22448,13 +22127,13 @@
       <c r="L34" s="49"/>
       <c r="M34" s="49"/>
       <c r="N34" s="49"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="51"/>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="O34" s="84"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="73"/>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
@@ -22469,13 +22148,13 @@
       <c r="L35" s="49"/>
       <c r="M35" s="49"/>
       <c r="N35" s="49"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="51"/>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="O35" s="69"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="73"/>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
@@ -22490,197 +22169,180 @@
       <c r="L36" s="49"/>
       <c r="M36" s="49"/>
       <c r="N36" s="49"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="51"/>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="158"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="73"/>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
       <c r="J37" s="49"/>
       <c r="K37" s="49"/>
       <c r="L37" s="49"/>
       <c r="M37" s="49"/>
       <c r="N37" s="49"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="51"/>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38" s="158"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="73"/>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
       <c r="J38" s="49"/>
       <c r="K38" s="49"/>
       <c r="L38" s="49"/>
       <c r="M38" s="49"/>
       <c r="N38" s="49"/>
-      <c r="O38" s="147" t="s">
-        <v>32</v>
-      </c>
-      <c r="P38" s="147"/>
-      <c r="Q38" s="147"/>
-      <c r="R38" s="147"/>
-      <c r="S38" s="147"/>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="A39" s="158"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="73"/>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
       <c r="J39" s="49"/>
       <c r="K39" s="49"/>
       <c r="L39" s="49"/>
       <c r="M39" s="49"/>
       <c r="N39" s="49"/>
-      <c r="O39" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="72"/>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="A40" s="158"/>
-      <c r="B40" s="158"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="73"/>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
       <c r="J40" s="49"/>
       <c r="K40" s="49"/>
       <c r="L40" s="49"/>
       <c r="M40" s="49"/>
       <c r="N40" s="51"/>
-      <c r="O40" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="72"/>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="158"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="73"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
       <c r="K41" s="49"/>
       <c r="L41" s="49"/>
       <c r="M41" s="49"/>
-      <c r="N41" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="O41" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="87"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
       <c r="S41" s="73"/>
-    </row>
-    <row r="42" spans="1:19">
-      <c r="A42" s="158"/>
-      <c r="B42" s="158"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
+      <c r="U41" s="171"/>
+      <c r="V41" s="171"/>
+      <c r="W41" s="171"/>
+      <c r="X41" s="171"/>
+      <c r="Y41" s="171"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
       <c r="J42" s="49"/>
       <c r="K42" s="49"/>
       <c r="L42" s="49"/>
       <c r="M42" s="49"/>
       <c r="N42" s="51"/>
-      <c r="O42" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
       <c r="S42" s="73"/>
     </row>
-    <row r="43" spans="1:19">
-      <c r="A43" s="158"/>
-      <c r="B43" s="158"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
+    <row r="43" spans="1:25">
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
       <c r="J43" s="49"/>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
       <c r="M43" s="49"/>
       <c r="N43" s="51"/>
-      <c r="O43" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="72"/>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="A44" s="158"/>
-      <c r="B44" s="158"/>
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="158"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="158"/>
-      <c r="I44" s="158"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="73"/>
+      <c r="W43" s="84"/>
+      <c r="X43" s="85"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
       <c r="J44" s="49"/>
       <c r="K44" s="49"/>
       <c r="L44" s="49"/>
       <c r="M44" s="49"/>
       <c r="N44" s="51"/>
-      <c r="O44" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
       <c r="S44" s="73"/>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="48"/>
+      <c r="W44" s="84"/>
+      <c r="X44" s="85"/>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" s="49"/>
       <c r="B45" s="49"/>
       <c r="C45" s="49"/>
       <c r="D45" s="49"/>
@@ -22688,22 +22350,21 @@
       <c r="F45" s="49"/>
       <c r="G45" s="49"/>
       <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
       <c r="J45" s="49"/>
       <c r="K45" s="49"/>
       <c r="L45" s="49"/>
       <c r="M45" s="49"/>
       <c r="N45" s="51"/>
-      <c r="O45" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="87"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
       <c r="S45" s="73"/>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="48"/>
+      <c r="W45" s="84"/>
+      <c r="X45" s="85"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="49"/>
       <c r="B46" s="49"/>
       <c r="C46" s="49"/>
       <c r="D46" s="49"/>
@@ -22711,22 +22372,21 @@
       <c r="F46" s="49"/>
       <c r="G46" s="49"/>
       <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
       <c r="J46" s="49"/>
       <c r="K46" s="49"/>
       <c r="L46" s="49"/>
       <c r="M46" s="49"/>
       <c r="N46" s="51"/>
-      <c r="O46" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
-      <c r="R46" s="87"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
       <c r="S46" s="73"/>
-    </row>
-    <row r="47" spans="1:19">
-      <c r="A47" s="48"/>
+      <c r="W46" s="84"/>
+      <c r="X46" s="85"/>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="49"/>
       <c r="B47" s="49"/>
       <c r="C47" s="49"/>
       <c r="D47" s="49"/>
@@ -22734,28 +22394,25 @@
       <c r="F47" s="49"/>
       <c r="G47" s="49"/>
       <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
       <c r="J47" s="49"/>
       <c r="K47" s="49"/>
       <c r="L47" s="49"/>
       <c r="M47" s="49"/>
       <c r="N47" s="51"/>
-      <c r="O47" s="86"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
       <c r="S47" s="73"/>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
+      <c r="W47" s="84"/>
+      <c r="X47" s="85"/>
+    </row>
+    <row r="48" spans="1:25">
       <c r="D48" s="49"/>
       <c r="E48" s="49"/>
       <c r="F48" s="49"/>
       <c r="G48" s="49"/>
       <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
@@ -22956,7 +22613,139 @@
       <c r="R57" s="57"/>
       <c r="S57" s="58"/>
     </row>
-    <row r="75" spans="4:12">
+    <row r="60" spans="1:19">
+      <c r="A60" s="156"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="156"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="156"/>
+      <c r="B62" s="156"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="156"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="156"/>
+      <c r="B63" s="156"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="156"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="156"/>
+      <c r="B64" s="156"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
+      <c r="I64" s="156"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="156"/>
+      <c r="B65" s="156"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="156"/>
+      <c r="I65" s="156"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="156"/>
+      <c r="B66" s="156"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
+      <c r="I66" s="156"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="156"/>
+      <c r="B67" s="156"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="156"/>
+      <c r="I67" s="156"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="48"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="48"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="48"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="48"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="D75" s="49"/>
       <c r="E75" s="49"/>
       <c r="F75" s="49"/>
@@ -22967,7 +22756,7 @@
       <c r="K75" s="49"/>
       <c r="L75" s="49"/>
     </row>
-    <row r="76" spans="4:12">
+    <row r="76" spans="1:12">
       <c r="D76" s="49"/>
       <c r="E76" s="49"/>
       <c r="F76" s="49"/>
@@ -22978,7 +22767,7 @@
       <c r="K76" s="49"/>
       <c r="L76" s="49"/>
     </row>
-    <row r="77" spans="4:12">
+    <row r="77" spans="1:12">
       <c r="D77" s="49"/>
       <c r="E77" s="49"/>
       <c r="F77" s="49"/>
@@ -22989,7 +22778,7 @@
       <c r="K77" s="49"/>
       <c r="L77" s="49"/>
     </row>
-    <row r="78" spans="4:12">
+    <row r="78" spans="1:12">
       <c r="D78" s="49"/>
       <c r="E78" s="49"/>
       <c r="F78" s="49"/>
@@ -23000,7 +22789,7 @@
       <c r="K78" s="49"/>
       <c r="L78" s="49"/>
     </row>
-    <row r="79" spans="4:12">
+    <row r="79" spans="1:12">
       <c r="D79" s="49"/>
       <c r="E79" s="49"/>
       <c r="F79" s="49"/>
@@ -23011,7 +22800,7 @@
       <c r="K79" s="49"/>
       <c r="L79" s="49"/>
     </row>
-    <row r="80" spans="4:12">
+    <row r="80" spans="1:12">
       <c r="D80" s="49"/>
       <c r="E80" s="49"/>
       <c r="F80" s="49"/>
@@ -23199,18 +22988,19 @@
       <c r="L96" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="O38:S38"/>
+  <mergeCells count="12">
+    <mergeCell ref="U41:Y41"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="F1:O1"/>
     <mergeCell ref="F2:O3"/>
     <mergeCell ref="O4:S4"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="A37:I44"/>
+    <mergeCell ref="A60:I67"/>
     <mergeCell ref="A13:G24"/>
     <mergeCell ref="H6:H18"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="O26:S26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q30" location="'Main Screen'!A1" display="Cancel "/>
@@ -23231,13 +23021,13 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>152400</xdr:colOff>
                     <xdr:row>103</xdr:row>
-                    <xdr:rowOff>8467</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1193800</xdr:colOff>
+                    <xdr:colOff>1196340</xdr:colOff>
                     <xdr:row>104</xdr:row>
-                    <xdr:rowOff>67733</xdr:rowOff>
+                    <xdr:rowOff>68580</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23251,15 +23041,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>135467</xdr:colOff>
+                    <xdr:colOff>137160</xdr:colOff>
                     <xdr:row>102</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>93133</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>104</xdr:row>
-                    <xdr:rowOff>93133</xdr:rowOff>
+                    <xdr:rowOff>91440</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23275,13 +23065,13 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>96</xdr:row>
-                    <xdr:rowOff>93133</xdr:rowOff>
+                    <xdr:rowOff>91440</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>97</xdr:row>
-                    <xdr:rowOff>118533</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23303,7 +23093,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>99</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:rowOff>99060</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23317,15 +23107,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>254000</xdr:colOff>
+                    <xdr:colOff>251460</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>59267</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>59267</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23345,9 +23135,9 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1337733</xdr:colOff>
+                    <xdr:colOff>1341120</xdr:colOff>
                     <xdr:row>105</xdr:row>
-                    <xdr:rowOff>42333</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23361,15 +23151,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>660400</xdr:colOff>
+                    <xdr:colOff>662940</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>76200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>118533</xdr:colOff>
+                    <xdr:colOff>121920</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>53340</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -23393,44 +23183,44 @@
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="45"/>
-    <col min="2" max="2" width="10.875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="45" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="45" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="45" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="45" customWidth="1"/>
-    <col min="7" max="15" width="7.375" style="45" customWidth="1"/>
-    <col min="16" max="16" width="11.875" style="45" customWidth="1"/>
-    <col min="17" max="18" width="9.125" style="45"/>
-    <col min="19" max="19" width="10.125" style="45" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.125" style="45"/>
+    <col min="1" max="1" width="9.109375" style="45"/>
+    <col min="2" max="2" width="10.88671875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="45" customWidth="1"/>
+    <col min="7" max="15" width="7.33203125" style="45" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" style="45" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" style="45"/>
+    <col min="19" max="19" width="10.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.35">
-      <c r="A1" s="164" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="156" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
       <c r="S1" s="61" t="s">
         <v>14</v>
       </c>
@@ -23445,52 +23235,52 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="148" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="146" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
       <c r="S2" s="64" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="T2" s="70"/>
       <c r="U2" s="70"/>
       <c r="V2" s="70"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
       <c r="S3" s="65">
         <v>43292</v>
       </c>
@@ -23516,13 +23306,13 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="147" t="s">
+      <c r="R4" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="145"/>
+      <c r="V4" s="145"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="49"/>
@@ -23543,7 +23333,7 @@
       <c r="P5" s="49"/>
       <c r="Q5" s="49"/>
       <c r="R5" s="52" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="S5" s="49"/>
       <c r="T5" s="49"/>
@@ -23552,13 +23342,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="49"/>
-      <c r="B6" s="175" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
+      <c r="B6" s="176" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
       <c r="I6" s="49"/>
@@ -23602,76 +23392,76 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="49"/>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="122"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="119"/>
       <c r="M8" s="49"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
       <c r="Q8" s="49"/>
-      <c r="R8" s="147" t="s">
+      <c r="R8" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-    </row>
-    <row r="9" spans="1:22" ht="6.7" customHeight="1">
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+    </row>
+    <row r="9" spans="1:22" ht="6.75" customHeight="1">
       <c r="A9" s="49"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="179"/>
-      <c r="R9" s="80" t="s">
-        <v>116</v>
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="79" t="s">
+        <v>97</v>
       </c>
       <c r="S9" s="50"/>
       <c r="T9" s="49"/>
       <c r="U9" s="49"/>
       <c r="V9" s="51"/>
     </row>
-    <row r="10" spans="1:22" ht="13.35">
+    <row r="10" spans="1:22">
       <c r="A10" s="49"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="83" t="s">
-        <v>115</v>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="81" t="s">
+        <v>96</v>
       </c>
       <c r="S10" s="50"/>
       <c r="T10" s="49"/>
@@ -23680,24 +23470,24 @@
     </row>
     <row r="11" spans="1:22" ht="14.7" customHeight="1">
       <c r="A11" s="49"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="179"/>
-      <c r="R11" s="83" t="s">
-        <v>114</v>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="81" t="s">
+        <v>95</v>
       </c>
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
@@ -23705,59 +23495,59 @@
       <c r="V11" s="51"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="173"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="173"/>
-      <c r="Q12" s="174"/>
-      <c r="R12" s="83" t="s">
-        <v>113</v>
+      <c r="A12" s="171"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="171"/>
+      <c r="Q12" s="172"/>
+      <c r="R12" s="81" t="s">
+        <v>94</v>
       </c>
       <c r="S12" s="49"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
       <c r="V12" s="51"/>
     </row>
-    <row r="13" spans="1:22" s="95" customFormat="1" ht="13.35">
+    <row r="13" spans="1:22" s="92" customFormat="1">
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
       <c r="C13" s="55" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
       <c r="F13" s="66"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
       <c r="M13" s="49"/>
       <c r="N13" s="49"/>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
-      <c r="R13" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="100"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="101"/>
-    </row>
-    <row r="14" spans="1:22" ht="13.35">
+      <c r="R13" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" s="97"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="98"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="49"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
@@ -23775,58 +23565,58 @@
       <c r="O14" s="49"/>
       <c r="P14" s="49"/>
       <c r="Q14" s="48"/>
-      <c r="R14" s="83"/>
+      <c r="R14" s="81"/>
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
       <c r="U14" s="49"/>
       <c r="V14" s="51"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="100"/>
-      <c r="B15" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="97" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="M15" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="N15" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="P15" s="77" t="s">
-        <v>165</v>
+      <c r="A15" s="97"/>
+      <c r="B15" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="76" t="s">
+        <v>145</v>
       </c>
       <c r="Q15" s="48"/>
       <c r="R15" s="48"/>
@@ -23837,17 +23627,17 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="49"/>
-      <c r="B16" s="176">
+      <c r="B16" s="173">
         <v>1234</v>
       </c>
-      <c r="C16" s="176" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="176">
+      <c r="C16" s="173" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="173">
         <v>122</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="F16" s="60">
         <v>100000</v>
@@ -23870,7 +23660,7 @@
         <v>300000</v>
       </c>
       <c r="Q16" s="48"/>
-      <c r="R16" s="83"/>
+      <c r="R16" s="81"/>
       <c r="S16" s="49"/>
       <c r="T16" s="49"/>
       <c r="U16" s="49"/>
@@ -23878,11 +23668,11 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="49"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="96" t="s">
-        <v>177</v>
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="93" t="s">
+        <v>157</v>
       </c>
       <c r="F17" s="60">
         <v>50000</v>
@@ -23911,99 +23701,99 @@
       <c r="U17" s="49"/>
       <c r="V17" s="51"/>
     </row>
-    <row r="18" spans="1:22" ht="15.35">
+    <row r="18" spans="1:22" ht="14.4">
       <c r="A18" s="49"/>
-      <c r="B18" s="171">
+      <c r="B18" s="169">
         <v>1233</v>
       </c>
-      <c r="C18" s="171" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="171">
+      <c r="C18" s="169" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="169">
         <v>111</v>
       </c>
-      <c r="E18" s="98" t="s">
-        <v>176</v>
-      </c>
-      <c r="F18" s="98">
+      <c r="E18" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="95">
         <v>100000</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="95">
         <v>0</v>
       </c>
-      <c r="H18" s="98">
+      <c r="H18" s="95">
         <v>20000</v>
       </c>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98">
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="Q18" s="48"/>
-      <c r="R18" s="83"/>
+      <c r="R18" s="81"/>
       <c r="S18" s="49"/>
       <c r="T18" s="49"/>
       <c r="U18" s="49"/>
       <c r="V18" s="51"/>
     </row>
-    <row r="19" spans="1:22" ht="15.35">
+    <row r="19" spans="1:22" ht="14.4">
       <c r="A19" s="49"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="99" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="98">
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="95">
         <v>50000</v>
       </c>
-      <c r="G19" s="98">
+      <c r="G19" s="95">
         <v>50000</v>
       </c>
-      <c r="H19" s="98">
+      <c r="H19" s="95">
         <v>0</v>
       </c>
-      <c r="I19" s="98">
+      <c r="I19" s="95">
         <v>10000</v>
       </c>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98">
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95">
         <f t="shared" si="0"/>
         <v>110000</v>
       </c>
       <c r="Q19" s="48"/>
-      <c r="R19" s="147" t="s">
+      <c r="R19" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="147"/>
+      <c r="S19" s="145"/>
+      <c r="T19" s="145"/>
+      <c r="U19" s="145"/>
+      <c r="V19" s="145"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="49"/>
-      <c r="B20" s="176">
+      <c r="B20" s="173">
         <v>1234</v>
       </c>
-      <c r="C20" s="176" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="176">
+      <c r="C20" s="173" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="173">
         <v>122</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="F20" s="60">
         <v>100000</v>
@@ -24026,8 +23816,8 @@
         <v>300000</v>
       </c>
       <c r="Q20" s="48"/>
-      <c r="R20" s="83" t="s">
-        <v>187</v>
+      <c r="R20" s="81" t="s">
+        <v>164</v>
       </c>
       <c r="S20" s="49"/>
       <c r="T20" s="49"/>
@@ -24036,11 +23826,11 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="49"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="96" t="s">
-        <v>177</v>
+      <c r="B21" s="174"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="93" t="s">
+        <v>157</v>
       </c>
       <c r="F21" s="60">
         <v>50000</v>
@@ -24063,82 +23853,82 @@
         <v>100000</v>
       </c>
       <c r="Q21" s="48"/>
-      <c r="R21" s="76" t="s">
-        <v>97</v>
+      <c r="R21" s="75" t="s">
+        <v>78</v>
       </c>
       <c r="S21" s="49"/>
       <c r="T21" s="49"/>
       <c r="U21" s="49"/>
       <c r="V21" s="51"/>
     </row>
-    <row r="22" spans="1:22" ht="15.35">
+    <row r="22" spans="1:22" ht="14.4">
       <c r="A22" s="49"/>
-      <c r="B22" s="171">
+      <c r="B22" s="169">
         <v>1233</v>
       </c>
-      <c r="C22" s="171" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="171">
+      <c r="C22" s="169" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="169">
         <v>111</v>
       </c>
-      <c r="E22" s="98" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" s="98">
+      <c r="E22" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="95">
         <v>100000</v>
       </c>
-      <c r="G22" s="98">
+      <c r="G22" s="95">
         <v>0</v>
       </c>
-      <c r="H22" s="98">
+      <c r="H22" s="95">
         <v>20000</v>
       </c>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98">
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="Q22" s="49"/>
-      <c r="R22" s="85"/>
+      <c r="R22" s="83"/>
       <c r="S22" s="49"/>
       <c r="T22" s="49"/>
       <c r="U22" s="49"/>
       <c r="V22" s="51"/>
     </row>
-    <row r="23" spans="1:22" ht="15.35">
+    <row r="23" spans="1:22" ht="14.4">
       <c r="A23" s="49"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="99" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" s="98">
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="95">
         <v>50000</v>
       </c>
-      <c r="G23" s="98">
+      <c r="G23" s="95">
         <v>50000</v>
       </c>
-      <c r="H23" s="98">
+      <c r="H23" s="95">
         <v>0</v>
       </c>
-      <c r="I23" s="98">
+      <c r="I23" s="95">
         <v>10000</v>
       </c>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98">
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95">
         <f t="shared" si="0"/>
         <v>110000</v>
       </c>
@@ -24147,7 +23937,7 @@
       <c r="U23" s="63"/>
       <c r="V23" s="63"/>
     </row>
-    <row r="24" spans="1:22" ht="13.35">
+    <row r="24" spans="1:22">
       <c r="A24" s="49"/>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -24165,7 +23955,7 @@
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
       <c r="Q24" s="49"/>
-      <c r="R24" s="83"/>
+      <c r="R24" s="81"/>
       <c r="S24" s="49"/>
       <c r="T24" s="49"/>
       <c r="U24" s="49"/>
@@ -24176,8 +23966,8 @@
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
-      <c r="E25" s="120" t="s">
-        <v>184</v>
+      <c r="E25" s="117" t="s">
+        <v>161</v>
       </c>
       <c r="F25" s="60">
         <f>SUM(F16:F23)</f>
@@ -24228,7 +24018,7 @@
       <c r="U25" s="49"/>
       <c r="V25" s="51"/>
     </row>
-    <row r="26" spans="1:22" ht="13.35">
+    <row r="26" spans="1:22">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
@@ -24246,7 +24036,7 @@
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
       <c r="Q26" s="49"/>
-      <c r="R26" s="126"/>
+      <c r="R26" s="123"/>
       <c r="T26" s="49"/>
       <c r="U26" s="49"/>
       <c r="V26" s="51"/>
@@ -24293,15 +24083,15 @@
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
-      <c r="R28" s="147" t="s">
+      <c r="R28" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="S28" s="147"/>
-      <c r="T28" s="147"/>
-      <c r="U28" s="147"/>
-      <c r="V28" s="147"/>
-    </row>
-    <row r="29" spans="1:22" ht="13.35">
+      <c r="S28" s="145"/>
+      <c r="T28" s="145"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="49"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
@@ -24345,8 +24135,8 @@
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
-      <c r="R30" s="83" t="s">
-        <v>96</v>
+      <c r="R30" s="81" t="s">
+        <v>77</v>
       </c>
       <c r="S30" s="49"/>
       <c r="T30" s="49"/>
@@ -24395,13 +24185,13 @@
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
       <c r="Q32" s="49"/>
-      <c r="R32" s="147" t="s">
+      <c r="R32" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-      <c r="V32" s="147"/>
+      <c r="S32" s="145"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="145"/>
+      <c r="V32" s="145"/>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="49"/>
@@ -24421,8 +24211,8 @@
       <c r="O33" s="49"/>
       <c r="P33" s="49"/>
       <c r="Q33" s="49"/>
-      <c r="R33" s="83" t="s">
-        <v>95</v>
+      <c r="R33" s="81" t="s">
+        <v>76</v>
       </c>
       <c r="S33" s="49"/>
       <c r="T33" s="49"/>
@@ -24519,13 +24309,13 @@
       <c r="O37" s="49"/>
       <c r="P37" s="49"/>
       <c r="Q37" s="49"/>
-      <c r="R37" s="144" t="s">
+      <c r="R37" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="S37" s="145"/>
-      <c r="T37" s="145"/>
-      <c r="U37" s="145"/>
-      <c r="V37" s="146"/>
+      <c r="S37" s="143"/>
+      <c r="T37" s="143"/>
+      <c r="U37" s="143"/>
+      <c r="V37" s="144"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="74"/>
@@ -24545,8 +24335,8 @@
       <c r="O38" s="49"/>
       <c r="P38" s="49"/>
       <c r="Q38" s="49"/>
-      <c r="R38" s="76" t="s">
-        <v>188</v>
+      <c r="R38" s="75" t="s">
+        <v>165</v>
       </c>
       <c r="S38" s="49"/>
       <c r="T38" s="49"/>
@@ -24571,8 +24361,8 @@
       <c r="O39" s="49"/>
       <c r="P39" s="49"/>
       <c r="Q39" s="49"/>
-      <c r="R39" s="76" t="s">
-        <v>94</v>
+      <c r="R39" s="75" t="s">
+        <v>75</v>
       </c>
       <c r="S39" s="49"/>
       <c r="T39" s="49"/>
@@ -24597,8 +24387,8 @@
       <c r="O40" s="49"/>
       <c r="P40" s="49"/>
       <c r="Q40" s="49"/>
-      <c r="R40" s="76" t="s">
-        <v>93</v>
+      <c r="R40" s="75" t="s">
+        <v>74</v>
       </c>
       <c r="S40" s="49"/>
       <c r="T40" s="49"/>
@@ -24623,8 +24413,8 @@
       <c r="O41" s="49"/>
       <c r="P41" s="49"/>
       <c r="Q41" s="49"/>
-      <c r="R41" s="76" t="s">
-        <v>92</v>
+      <c r="R41" s="75" t="s">
+        <v>73</v>
       </c>
       <c r="S41" s="49"/>
       <c r="T41" s="49"/>
@@ -24649,8 +24439,8 @@
       <c r="O42" s="49"/>
       <c r="P42" s="49"/>
       <c r="Q42" s="49"/>
-      <c r="R42" s="76" t="s">
-        <v>91</v>
+      <c r="R42" s="75" t="s">
+        <v>72</v>
       </c>
       <c r="S42" s="49"/>
       <c r="T42" s="49"/>
@@ -24675,8 +24465,8 @@
       <c r="O43" s="49"/>
       <c r="P43" s="49"/>
       <c r="Q43" s="49"/>
-      <c r="R43" s="76" t="s">
-        <v>90</v>
+      <c r="R43" s="75" t="s">
+        <v>71</v>
       </c>
       <c r="S43" s="49"/>
       <c r="T43" s="49"/>
@@ -24993,15 +24783,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>474133</xdr:colOff>
+                    <xdr:colOff>472440</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>135467</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1803400</xdr:colOff>
+                    <xdr:colOff>1805940</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>8467</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -25015,13 +24805,13 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>14</xdr:col>
-                    <xdr:colOff>287867</xdr:colOff>
+                    <xdr:colOff>289560</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>110067</xdr:rowOff>
+                    <xdr:rowOff>106680</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>15</xdr:col>
-                    <xdr:colOff>575733</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>76200</xdr:rowOff>
                   </to>
@@ -25047,43 +24837,43 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="45" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="45" customWidth="1"/>
     <col min="2" max="2" width="5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="45" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="45" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="45" customWidth="1"/>
-    <col min="6" max="12" width="9.875" style="45" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="45" customWidth="1"/>
-    <col min="14" max="18" width="9.125" style="45"/>
-    <col min="19" max="19" width="10.125" style="45" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.125" style="45"/>
+    <col min="3" max="3" width="22.21875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="45" customWidth="1"/>
+    <col min="6" max="12" width="9.88671875" style="45" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="45" customWidth="1"/>
+    <col min="14" max="18" width="9.109375" style="45"/>
+    <col min="19" max="19" width="10.109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.35">
-      <c r="A1" s="164" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="156" t="s">
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
       <c r="S1" s="61" t="s">
         <v>14</v>
       </c>
@@ -25098,52 +24888,52 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="148" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
       <c r="S2" s="64" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="T2" s="70"/>
       <c r="U2" s="70"/>
       <c r="V2" s="70"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
       <c r="S3" s="65">
         <v>43292</v>
       </c>
@@ -25169,13 +24959,13 @@
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="147" t="s">
+      <c r="R4" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="147"/>
-      <c r="T4" s="147"/>
-      <c r="U4" s="147"/>
-      <c r="V4" s="147"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="145"/>
+      <c r="V4" s="145"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="49"/>
@@ -25196,7 +24986,7 @@
       <c r="P5" s="49"/>
       <c r="Q5" s="49"/>
       <c r="R5" s="52" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="S5" s="49"/>
       <c r="T5" s="49"/>
@@ -25205,11 +24995,11 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="49"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
       <c r="I6" s="49"/>
@@ -25217,10 +25007,10 @@
       <c r="K6" s="49"/>
       <c r="L6" s="49"/>
       <c r="M6" s="49"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
       <c r="R6" s="48"/>
       <c r="S6" s="49"/>
       <c r="T6" s="49"/>
@@ -25228,7 +25018,7 @@
       <c r="V6" s="51"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="158"/>
+      <c r="A7" s="156"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
@@ -25241,121 +25031,121 @@
       <c r="K7" s="49"/>
       <c r="L7" s="49"/>
       <c r="M7" s="49"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
       <c r="R7" s="48"/>
       <c r="S7" s="49"/>
       <c r="T7" s="49"/>
       <c r="U7" s="49"/>
       <c r="V7" s="51"/>
     </row>
-    <row r="8" spans="1:22" ht="0.7" customHeight="1">
-      <c r="A8" s="158"/>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
+    <row r="8" spans="1:22" ht="0.75" customHeight="1">
+      <c r="A8" s="156"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="122"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="119"/>
       <c r="M8" s="49"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="147" t="s">
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-    </row>
-    <row r="9" spans="1:22" s="114" customFormat="1" ht="6.7" customHeight="1">
-      <c r="A9" s="158"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="80" t="s">
-        <v>116</v>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+    </row>
+    <row r="9" spans="1:22" s="111" customFormat="1" ht="6.75" customHeight="1">
+      <c r="A9" s="156"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="79" t="s">
+        <v>97</v>
       </c>
       <c r="S9" s="50"/>
       <c r="T9" s="49"/>
       <c r="U9" s="49"/>
       <c r="V9" s="51"/>
     </row>
-    <row r="10" spans="1:22" s="114" customFormat="1" ht="13.35">
-      <c r="A10" s="158"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="83" t="s">
-        <v>127</v>
+    <row r="10" spans="1:22" s="111" customFormat="1">
+      <c r="A10" s="156"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="81" t="s">
+        <v>107</v>
       </c>
       <c r="S10" s="50"/>
       <c r="T10" s="49"/>
       <c r="U10" s="49"/>
       <c r="V10" s="51"/>
     </row>
-    <row r="11" spans="1:22" s="114" customFormat="1">
-      <c r="A11" s="158"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="83" t="s">
-        <v>128</v>
+    <row r="11" spans="1:22" s="111" customFormat="1">
+      <c r="A11" s="156"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="81" t="s">
+        <v>108</v>
       </c>
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
       <c r="U11" s="49"/>
       <c r="V11" s="51"/>
     </row>
-    <row r="12" spans="1:22" ht="15.85" customHeight="1">
+    <row r="12" spans="1:22" ht="15.9" customHeight="1">
       <c r="A12" s="49"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
@@ -25369,59 +25159,59 @@
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
       <c r="M12" s="49"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="83" t="s">
-        <v>189</v>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="81" t="s">
+        <v>166</v>
       </c>
       <c r="S12" s="49"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49"/>
       <c r="V12" s="51"/>
     </row>
-    <row r="13" spans="1:22" ht="15.85" customHeight="1">
+    <row r="13" spans="1:22" ht="15.9" customHeight="1">
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
-      <c r="C13" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="I13" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="J13" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="K13" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="L13" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="M13" s="124" t="s">
-        <v>186</v>
+      <c r="C13" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="L13" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="M13" s="121" t="s">
+        <v>163</v>
       </c>
       <c r="N13" s="49"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
       <c r="Q13" s="55"/>
-      <c r="R13" s="83"/>
+      <c r="R13" s="81"/>
       <c r="S13" s="49"/>
       <c r="T13" s="49"/>
       <c r="U13" s="49"/>
@@ -25430,30 +25220,30 @@
     <row r="14" spans="1:22" ht="18" customHeight="1">
       <c r="A14" s="49"/>
       <c r="B14" s="49"/>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="101">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="101">
         <v>0.8125</v>
       </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
       <c r="M14" s="60">
         <v>20</v>
       </c>
       <c r="N14" s="55"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
       <c r="Q14" s="49"/>
-      <c r="R14" s="83"/>
+      <c r="R14" s="81"/>
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
       <c r="U14" s="49"/>
@@ -25461,29 +25251,29 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="49"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="104">
+      <c r="B15" s="86"/>
+      <c r="C15" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="101">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E15" s="104">
+      <c r="E15" s="101">
         <v>0.8125</v>
       </c>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="125">
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="122">
         <v>15</v>
       </c>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
       <c r="Q15" s="49"/>
       <c r="R15" s="48"/>
       <c r="S15" s="49"/>
@@ -25493,19 +25283,19 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="49"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="89"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="86"/>
       <c r="O16" s="49"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="49"/>
@@ -25517,19 +25307,19 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="42"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="49"/>
@@ -25539,7 +25329,7 @@
       <c r="U17" s="49"/>
       <c r="V17" s="51"/>
     </row>
-    <row r="18" spans="1:22" ht="13.35">
+    <row r="18" spans="1:22">
       <c r="A18" s="49"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
@@ -25555,7 +25345,7 @@
       <c r="M18" s="49"/>
       <c r="N18" s="49"/>
       <c r="O18" s="44"/>
-      <c r="P18" s="78"/>
+      <c r="P18" s="77"/>
       <c r="Q18" s="55"/>
       <c r="R18" s="48"/>
       <c r="S18" s="49"/>
@@ -25586,7 +25376,7 @@
       <c r="U19" s="49"/>
       <c r="V19" s="51"/>
     </row>
-    <row r="20" spans="1:22" ht="13.35">
+    <row r="20" spans="1:22">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
@@ -25604,13 +25394,13 @@
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
-      <c r="R20" s="147" t="s">
+      <c r="R20" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="147"/>
-      <c r="T20" s="147"/>
-      <c r="U20" s="147"/>
-      <c r="V20" s="147"/>
+      <c r="S20" s="145"/>
+      <c r="T20" s="145"/>
+      <c r="U20" s="145"/>
+      <c r="V20" s="145"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="49"/>
@@ -25630,11 +25420,11 @@
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
-      <c r="R21" s="131" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="13.35">
+      <c r="R21" s="128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="49"/>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
@@ -25652,8 +25442,8 @@
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
-      <c r="R22" s="83" t="s">
-        <v>191</v>
+      <c r="R22" s="81" t="s">
+        <v>168</v>
       </c>
       <c r="S22" s="49"/>
       <c r="T22" s="49"/>
@@ -25678,13 +25468,13 @@
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
       <c r="Q23" s="49"/>
-      <c r="R23" s="83" t="s">
-        <v>192</v>
+      <c r="R23" s="81" t="s">
+        <v>169</v>
       </c>
       <c r="U23" s="63"/>
       <c r="V23" s="63"/>
     </row>
-    <row r="24" spans="1:22" ht="13.35">
+    <row r="24" spans="1:22">
       <c r="A24" s="49"/>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -25702,8 +25492,8 @@
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
       <c r="Q24" s="49"/>
-      <c r="R24" s="83" t="s">
-        <v>193</v>
+      <c r="R24" s="81" t="s">
+        <v>170</v>
       </c>
       <c r="S24" s="49"/>
       <c r="T24" s="49"/>
@@ -25757,7 +25547,7 @@
       <c r="U26" s="49"/>
       <c r="V26" s="51"/>
     </row>
-    <row r="27" spans="1:22" ht="13.35">
+    <row r="27" spans="1:22">
       <c r="A27" s="49"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
@@ -25799,15 +25589,15 @@
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
-      <c r="R28" s="147" t="s">
+      <c r="R28" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="S28" s="147"/>
-      <c r="T28" s="147"/>
-      <c r="U28" s="147"/>
-      <c r="V28" s="147"/>
-    </row>
-    <row r="29" spans="1:22" ht="13.35">
+      <c r="S28" s="145"/>
+      <c r="T28" s="145"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="49"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
@@ -25851,7 +25641,7 @@
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
-      <c r="R30" s="83"/>
+      <c r="R30" s="81"/>
       <c r="S30" s="49"/>
       <c r="T30" s="49"/>
       <c r="U30" s="49"/>
@@ -25899,13 +25689,13 @@
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
       <c r="Q32" s="49"/>
-      <c r="R32" s="147" t="s">
+      <c r="R32" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-      <c r="V32" s="147"/>
+      <c r="S32" s="145"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="145"/>
+      <c r="V32" s="145"/>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="49"/>
@@ -25925,8 +25715,8 @@
       <c r="O33" s="49"/>
       <c r="P33" s="49"/>
       <c r="Q33" s="49"/>
-      <c r="R33" s="83" t="s">
-        <v>95</v>
+      <c r="R33" s="81" t="s">
+        <v>76</v>
       </c>
       <c r="S33" s="49"/>
       <c r="T33" s="49"/>
@@ -26023,13 +25813,13 @@
       <c r="O37" s="49"/>
       <c r="P37" s="49"/>
       <c r="Q37" s="49"/>
-      <c r="R37" s="144" t="s">
+      <c r="R37" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="S37" s="145"/>
-      <c r="T37" s="145"/>
-      <c r="U37" s="145"/>
-      <c r="V37" s="146"/>
+      <c r="S37" s="143"/>
+      <c r="T37" s="143"/>
+      <c r="U37" s="143"/>
+      <c r="V37" s="144"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="74"/>
@@ -26049,8 +25839,8 @@
       <c r="O38" s="49"/>
       <c r="P38" s="49"/>
       <c r="Q38" s="49"/>
-      <c r="R38" s="76" t="s">
-        <v>124</v>
+      <c r="R38" s="75" t="s">
+        <v>104</v>
       </c>
       <c r="S38" s="49"/>
       <c r="T38" s="49"/>
@@ -26075,8 +25865,8 @@
       <c r="O39" s="49"/>
       <c r="P39" s="49"/>
       <c r="Q39" s="49"/>
-      <c r="R39" s="76" t="s">
-        <v>125</v>
+      <c r="R39" s="75" t="s">
+        <v>105</v>
       </c>
       <c r="S39" s="49"/>
       <c r="T39" s="49"/>
@@ -26101,8 +25891,8 @@
       <c r="O40" s="49"/>
       <c r="P40" s="49"/>
       <c r="Q40" s="49"/>
-      <c r="R40" s="76" t="s">
-        <v>126</v>
+      <c r="R40" s="75" t="s">
+        <v>106</v>
       </c>
       <c r="S40" s="49"/>
       <c r="T40" s="49"/>
@@ -26127,8 +25917,8 @@
       <c r="O41" s="49"/>
       <c r="P41" s="49"/>
       <c r="Q41" s="49"/>
-      <c r="R41" s="76" t="s">
-        <v>194</v>
+      <c r="R41" s="75" t="s">
+        <v>171</v>
       </c>
       <c r="S41" s="49"/>
       <c r="T41" s="49"/>
@@ -26153,8 +25943,8 @@
       <c r="O42" s="49"/>
       <c r="P42" s="49"/>
       <c r="Q42" s="49"/>
-      <c r="R42" s="76" t="s">
-        <v>195</v>
+      <c r="R42" s="75" t="s">
+        <v>172</v>
       </c>
       <c r="S42" s="49"/>
       <c r="T42" s="49"/>
@@ -26179,8 +25969,8 @@
       <c r="O43" s="49"/>
       <c r="P43" s="49"/>
       <c r="Q43" s="49"/>
-      <c r="R43" s="76" t="s">
-        <v>196</v>
+      <c r="R43" s="75" t="s">
+        <v>173</v>
       </c>
       <c r="S43" s="49"/>
       <c r="T43" s="49"/>
@@ -26205,8 +25995,8 @@
       <c r="O44" s="49"/>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
-      <c r="R44" s="76" t="s">
-        <v>197</v>
+      <c r="R44" s="75" t="s">
+        <v>174</v>
       </c>
       <c r="S44" s="49"/>
       <c r="T44" s="49"/>
@@ -26231,8 +26021,8 @@
       <c r="O45" s="49"/>
       <c r="P45" s="49"/>
       <c r="Q45" s="49"/>
-      <c r="R45" s="76" t="s">
-        <v>198</v>
+      <c r="R45" s="75" t="s">
+        <v>175</v>
       </c>
       <c r="S45" s="49"/>
       <c r="T45" s="49"/>
@@ -26257,8 +26047,8 @@
       <c r="O46" s="49"/>
       <c r="P46" s="49"/>
       <c r="Q46" s="49"/>
-      <c r="R46" s="76" t="s">
-        <v>199</v>
+      <c r="R46" s="75" t="s">
+        <v>176</v>
       </c>
       <c r="S46" s="49"/>
       <c r="T46" s="49"/>
@@ -26283,8 +26073,8 @@
       <c r="O47" s="49"/>
       <c r="P47" s="49"/>
       <c r="Q47" s="49"/>
-      <c r="R47" s="76" t="s">
-        <v>200</v>
+      <c r="R47" s="75" t="s">
+        <v>177</v>
       </c>
       <c r="S47" s="49"/>
       <c r="T47" s="49"/>
@@ -26492,15 +26282,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>8467</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>67733</xdr:rowOff>
+                    <xdr:rowOff>68580</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>567267</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
+                    <xdr:rowOff>129540</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26514,15 +26304,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>211667</xdr:colOff>
+                    <xdr:colOff>213360</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>143933</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>516467</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>169333</xdr:rowOff>
+                    <xdr:rowOff>167640</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26536,15 +26326,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>211667</xdr:colOff>
+                    <xdr:colOff>213360</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>194733</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>516467</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26558,15 +26348,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>237067</xdr:colOff>
+                    <xdr:colOff>236220</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>194733</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>541867</xdr:colOff>
+                    <xdr:colOff>541020</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26588,7 +26378,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>177800</xdr:rowOff>
+                    <xdr:rowOff>175260</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26604,13 +26394,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>194733</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26632,7 +26422,7 @@
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>177800</xdr:rowOff>
+                    <xdr:rowOff>175260</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26646,15 +26436,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>220133</xdr:colOff>
+                    <xdr:colOff>220980</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>143933</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>524933</xdr:colOff>
+                    <xdr:colOff>525780</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>169333</xdr:rowOff>
+                    <xdr:rowOff>167640</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26668,15 +26458,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>220133</xdr:colOff>
+                    <xdr:colOff>220980</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>194733</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>524933</xdr:colOff>
+                    <xdr:colOff>525780</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26690,15 +26480,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>237067</xdr:colOff>
+                    <xdr:colOff>236220</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>541867</xdr:colOff>
+                    <xdr:colOff>541020</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>177800</xdr:rowOff>
+                    <xdr:rowOff>175260</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26714,13 +26504,13 @@
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>194733</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26736,13 +26526,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>143933</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>169333</xdr:rowOff>
+                    <xdr:rowOff>167640</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26758,13 +26548,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>194733</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26778,15 +26568,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>211667</xdr:colOff>
+                    <xdr:colOff>213360</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>143933</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>516467</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>169333</xdr:rowOff>
+                    <xdr:rowOff>167640</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26800,15 +26590,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>211667</xdr:colOff>
+                    <xdr:colOff>213360</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>194733</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>516467</xdr:colOff>
+                    <xdr:colOff>518160</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26822,15 +26612,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>677333</xdr:colOff>
+                    <xdr:colOff>678180</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>53340</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>829733</xdr:colOff>
+                    <xdr:colOff>830580</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>194733</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26844,15 +26634,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>53340</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>53340</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>220133</xdr:colOff>
+                    <xdr:colOff>220980</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>211667</xdr:rowOff>
+                    <xdr:rowOff>213360</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -26876,20 +26666,20 @@
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16384" width="9.125" style="2"/>
+    <col min="1" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="F2" s="66" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="G2" s="46"/>
       <c r="H2" s="66" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I2" s="46"/>
       <c r="J2" s="46"/>
@@ -26897,22 +26687,22 @@
     <row r="3" spans="1:10">
       <c r="F3" s="46"/>
       <c r="G3" s="66" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="H3" s="46"/>
       <c r="I3" s="66" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10">
       <c r="F4" s="46"/>
       <c r="G4" s="66" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="H4" s="46"/>
       <c r="I4" s="66" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="J4" s="46"/>
     </row>
@@ -26921,22 +26711,22 @@
         <v>22</v>
       </c>
       <c r="G5" s="66" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="66" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10">
       <c r="F6" s="46"/>
       <c r="G6" s="66" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="66" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="J6" s="46"/>
     </row>
@@ -26944,7 +26734,7 @@
       <c r="A7" s="6"/>
       <c r="F7" s="46"/>
       <c r="G7" s="66" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
@@ -26961,10 +26751,10 @@
     <row r="9" spans="1:10">
       <c r="B9" s="31"/>
       <c r="F9" s="66" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G9" s="66" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
@@ -26974,7 +26764,7 @@
       <c r="B10" s="31"/>
       <c r="F10" s="46"/>
       <c r="G10" s="66" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>

--- a/Aidiko dojo_ScreenLayout.xlsx
+++ b/Aidiko dojo_ScreenLayout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20493" windowHeight="7907" tabRatio="906"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20493" windowHeight="7907" tabRatio="906" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="43" r:id="rId1"/>
@@ -11720,8 +11720,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="931458" y="7978602"/>
-          <a:ext cx="3110441" cy="254622"/>
+          <a:off x="928611" y="7914569"/>
+          <a:ext cx="3134633" cy="250353"/>
           <a:chOff x="99" y="765"/>
           <a:chExt cx="364" cy="27"/>
         </a:xfrm>
@@ -17843,15 +17843,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>368548</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>159387</xdr:rowOff>
+      <xdr:colOff>392739</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>488077</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>149425</xdr:rowOff>
+      <xdr:colOff>512268</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>40568</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17860,8 +17860,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="368548" y="1942367"/>
-          <a:ext cx="6643843" cy="12570509"/>
+          <a:off x="392739" y="2070435"/>
+          <a:ext cx="6276005" cy="12508609"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20143,6 +20143,65 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>39843</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>159372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647451</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>358587</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="39843" y="677333"/>
+          <a:ext cx="6733490" cy="6833098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20544,7 +20603,7 @@
   </sheetPr>
   <dimension ref="A1:AW62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
@@ -30606,8 +30665,8 @@
   </sheetPr>
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A41" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.7"/>
@@ -31601,14 +31660,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="43" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="38" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;F
 &amp;A</oddHeader>
     <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="55" max="13" man="1"/>
+    <brk id="66" max="13" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -31672,7 +31731,7 @@
   </sheetPr>
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
@@ -32742,7 +32801,7 @@
     <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="45" max="13" man="1"/>
+    <brk id="48" max="13" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -32800,6 +32859,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017679831E9FDD141B62CBAB002708E93" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="76b5e91baaa308436a467b4b8b115d89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4bad80db-3a4e-4dde-8c9e-0054f8c0f432" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="660fb7af60429d99ebce4ef79f2614fc" ns2:_="">
     <xsd:import namespace="4bad80db-3a4e-4dde-8c9e-0054f8c0f432"/>
@@ -32931,7 +32996,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -32940,13 +33005,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02A580B-C9DA-4286-A2BC-8AF17618395A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4bad80db-3a4e-4dde-8c9e-0054f8c0f432"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E214F83-E554-452C-A5C7-A2F8174A58A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32964,26 +33039,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C8FBACF-A5C7-4155-B03A-DC3678DCA1C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02A580B-C9DA-4286-A2BC-8AF17618395A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4bad80db-3a4e-4dde-8c9e-0054f8c0f432"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Aidiko dojo_ScreenLayout.xlsx
+++ b/Aidiko dojo_ScreenLayout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20493" windowHeight="7907" tabRatio="906" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20493" windowHeight="7907" tabRatio="906" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="43" r:id="rId1"/>
@@ -1526,6 +1526,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1545,27 +1566,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,7 +1640,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1685,21 +1700,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1712,16 +1712,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1733,16 +1730,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7746,7 +7746,7 @@
                   <a:latin typeface="Arial"/>
                   <a:cs typeface="Arial"/>
                 </a:rPr>
-                <a:t>Search</a:t>
+                <a:t>Tìm Kiếm</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -8777,7 +8777,7 @@
                   <a:latin typeface="Arial"/>
                   <a:cs typeface="Arial"/>
                 </a:rPr>
-                <a:t>Export</a:t>
+                <a:t>Xuất File</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -20620,169 +20620,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="17.350000000000001" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="166" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="167"/>
-      <c r="AC1" s="167"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="166" t="s">
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="157"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="157"/>
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="167"/>
-      <c r="AI1" s="167"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="166" t="s">
+      <c r="AH1" s="157"/>
+      <c r="AI1" s="157"/>
+      <c r="AJ1" s="158"/>
+      <c r="AK1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="167"/>
-      <c r="AM1" s="167"/>
-      <c r="AN1" s="168"/>
-      <c r="AO1" s="166" t="s">
+      <c r="AL1" s="157"/>
+      <c r="AM1" s="157"/>
+      <c r="AN1" s="158"/>
+      <c r="AO1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="167"/>
-      <c r="AQ1" s="167"/>
-      <c r="AR1" s="168"/>
-      <c r="AS1" s="155" t="s">
+      <c r="AP1" s="157"/>
+      <c r="AQ1" s="157"/>
+      <c r="AR1" s="158"/>
+      <c r="AS1" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="AT1" s="155"/>
-      <c r="AU1" s="155"/>
-      <c r="AV1" s="155"/>
+      <c r="AT1" s="162"/>
+      <c r="AU1" s="162"/>
+      <c r="AV1" s="162"/>
       <c r="AW1" s="141"/>
     </row>
     <row r="2" spans="1:49" ht="16.5" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="156" t="s">
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="163" t="s">
         <v>203</v>
       </c>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="162"/>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="163"/>
-      <c r="AJ2" s="164"/>
-      <c r="AK2" s="162"/>
-      <c r="AL2" s="163"/>
-      <c r="AM2" s="163"/>
-      <c r="AN2" s="164"/>
-      <c r="AO2" s="162"/>
-      <c r="AP2" s="163"/>
-      <c r="AQ2" s="163"/>
-      <c r="AR2" s="164"/>
-      <c r="AS2" s="162"/>
-      <c r="AT2" s="163"/>
-      <c r="AU2" s="163"/>
-      <c r="AV2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="159"/>
+      <c r="AH2" s="160"/>
+      <c r="AI2" s="160"/>
+      <c r="AJ2" s="161"/>
+      <c r="AK2" s="159"/>
+      <c r="AL2" s="160"/>
+      <c r="AM2" s="160"/>
+      <c r="AN2" s="161"/>
+      <c r="AO2" s="159"/>
+      <c r="AP2" s="160"/>
+      <c r="AQ2" s="160"/>
+      <c r="AR2" s="161"/>
+      <c r="AS2" s="159"/>
+      <c r="AT2" s="160"/>
+      <c r="AU2" s="160"/>
+      <c r="AV2" s="161"/>
     </row>
     <row r="3" spans="1:49" ht="15.85" customHeight="1">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="163"/>
-      <c r="AJ3" s="164"/>
-      <c r="AK3" s="162"/>
-      <c r="AL3" s="163"/>
-      <c r="AM3" s="163"/>
-      <c r="AN3" s="164"/>
-      <c r="AO3" s="162"/>
-      <c r="AP3" s="163"/>
-      <c r="AQ3" s="163"/>
-      <c r="AR3" s="164"/>
-      <c r="AS3" s="162"/>
-      <c r="AT3" s="163"/>
-      <c r="AU3" s="163"/>
-      <c r="AV3" s="164"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="167"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="159"/>
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="160"/>
+      <c r="AJ3" s="161"/>
+      <c r="AK3" s="159"/>
+      <c r="AL3" s="160"/>
+      <c r="AM3" s="160"/>
+      <c r="AN3" s="161"/>
+      <c r="AO3" s="159"/>
+      <c r="AP3" s="160"/>
+      <c r="AQ3" s="160"/>
+      <c r="AR3" s="161"/>
+      <c r="AS3" s="159"/>
+      <c r="AT3" s="160"/>
+      <c r="AU3" s="160"/>
+      <c r="AV3" s="161"/>
     </row>
     <row r="4" spans="1:49">
       <c r="A4" s="141"/>
@@ -23737,6 +23737,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="N2:AF3"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AS3:AV3"/>
     <mergeCell ref="A1:M3"/>
     <mergeCell ref="N1:AF1"/>
     <mergeCell ref="AG1:AJ1"/>
@@ -23745,13 +23752,6 @@
     <mergeCell ref="AG3:AJ3"/>
     <mergeCell ref="AK3:AN3"/>
     <mergeCell ref="AO3:AR3"/>
-    <mergeCell ref="AS1:AV1"/>
-    <mergeCell ref="N2:AF3"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AS3:AV3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.3" top="0.53749999999999998" bottom="0.3" header="0.3" footer="0.2"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -24815,25 +24815,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="13.35">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="203" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
       <c r="P1" s="60" t="s">
         <v>13</v>
       </c>
@@ -24848,23 +24848,23 @@
       </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="197"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="204" t="s">
+      <c r="A2" s="202"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="204"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="67" t="s">
         <v>40</v>
       </c>
@@ -24873,21 +24873,21 @@
       <c r="S2" s="67"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="200"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
       <c r="P3" s="68">
         <v>43411</v>
       </c>
@@ -24997,13 +24997,13 @@
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
       <c r="N8" s="50"/>
-      <c r="O8" s="205" t="s">
+      <c r="O8" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="P8" s="206"/>
-      <c r="Q8" s="206"/>
-      <c r="R8" s="206"/>
-      <c r="S8" s="207"/>
+      <c r="P8" s="211"/>
+      <c r="Q8" s="211"/>
+      <c r="R8" s="211"/>
+      <c r="S8" s="212"/>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="107"/>
@@ -25029,14 +25029,14 @@
       <c r="S9" s="50"/>
     </row>
     <row r="10" spans="1:35" ht="10.7" customHeight="1">
-      <c r="A10" s="193"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
+      <c r="A10" s="194"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
       <c r="I10" s="105"/>
       <c r="J10" s="106"/>
       <c r="K10" s="48"/>
@@ -25052,14 +25052,14 @@
       <c r="S10" s="50"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="193"/>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
+      <c r="A11" s="194"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
       <c r="I11" s="105"/>
       <c r="J11" s="106"/>
       <c r="K11" s="48"/>
@@ -25075,14 +25075,14 @@
       <c r="S11" s="50"/>
     </row>
     <row r="12" spans="1:35" ht="16" customHeight="1">
-      <c r="A12" s="193"/>
-      <c r="B12" s="193"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
+      <c r="A12" s="194"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
       <c r="I12" s="105"/>
       <c r="J12" s="106"/>
       <c r="K12" s="48"/>
@@ -25098,14 +25098,14 @@
       <c r="U12" s="48"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="193"/>
-      <c r="B13" s="193"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
+      <c r="A13" s="194"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
       <c r="I13" s="108"/>
       <c r="J13" s="109"/>
       <c r="K13" s="48"/>
@@ -25123,14 +25123,14 @@
       <c r="U13" s="48"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="193"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
+      <c r="A14" s="194"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
@@ -25146,14 +25146,14 @@
       <c r="S14" s="50"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="193"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
@@ -25182,14 +25182,14 @@
       <c r="AI15" s="48"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="193"/>
-      <c r="B16" s="193"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
@@ -25218,14 +25218,14 @@
       <c r="AI16" s="48"/>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" s="193"/>
-      <c r="B17" s="193"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
@@ -25252,14 +25252,14 @@
       <c r="AI17" s="48"/>
     </row>
     <row r="18" spans="1:35">
-      <c r="A18" s="193"/>
-      <c r="B18" s="193"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
+      <c r="A18" s="194"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
       <c r="I18" s="54"/>
       <c r="J18" s="48"/>
       <c r="K18" s="48"/>
@@ -25545,12 +25545,12 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="47"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="208"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="193"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="193"/>
       <c r="H26" s="121"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -25566,12 +25566,12 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="47"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
       <c r="H27" s="115"/>
       <c r="I27" s="105"/>
       <c r="J27" s="105"/>
@@ -25579,11 +25579,11 @@
       <c r="L27" s="113"/>
       <c r="M27" s="110"/>
       <c r="N27" s="110"/>
-      <c r="O27" s="209"/>
-      <c r="P27" s="209"/>
-      <c r="Q27" s="209"/>
-      <c r="R27" s="209"/>
-      <c r="S27" s="210"/>
+      <c r="O27" s="195"/>
+      <c r="P27" s="195"/>
+      <c r="Q27" s="195"/>
+      <c r="R27" s="195"/>
+      <c r="S27" s="196"/>
     </row>
     <row r="28" spans="1:35" ht="13.35">
       <c r="A28" s="47"/>
@@ -25600,11 +25600,11 @@
       <c r="L28" s="117"/>
       <c r="M28" s="111"/>
       <c r="N28" s="111"/>
-      <c r="O28" s="209"/>
-      <c r="P28" s="209"/>
-      <c r="Q28" s="209"/>
-      <c r="R28" s="209"/>
-      <c r="S28" s="210"/>
+      <c r="O28" s="195"/>
+      <c r="P28" s="195"/>
+      <c r="Q28" s="195"/>
+      <c r="R28" s="195"/>
+      <c r="S28" s="196"/>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="47"/>
@@ -25621,143 +25621,143 @@
       <c r="L29" s="117"/>
       <c r="M29" s="113"/>
       <c r="N29" s="113"/>
-      <c r="O29" s="211"/>
-      <c r="P29" s="211"/>
-      <c r="Q29" s="211"/>
-      <c r="R29" s="211"/>
-      <c r="S29" s="212"/>
+      <c r="O29" s="197"/>
+      <c r="P29" s="197"/>
+      <c r="Q29" s="197"/>
+      <c r="R29" s="197"/>
+      <c r="S29" s="198"/>
     </row>
     <row r="30" spans="1:35">
-      <c r="A30" s="209"/>
-      <c r="B30" s="209"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="209"/>
-      <c r="F30" s="209"/>
-      <c r="G30" s="209"/>
-      <c r="H30" s="209"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="209"/>
-      <c r="K30" s="209"/>
-      <c r="L30" s="209"/>
-      <c r="M30" s="209"/>
-      <c r="N30" s="209"/>
-      <c r="O30" s="209"/>
-      <c r="P30" s="209"/>
-      <c r="Q30" s="209"/>
-      <c r="R30" s="209"/>
-      <c r="S30" s="209"/>
-      <c r="T30" s="209"/>
+      <c r="A30" s="195"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="195"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="195"/>
+      <c r="K30" s="195"/>
+      <c r="L30" s="195"/>
+      <c r="M30" s="195"/>
+      <c r="N30" s="195"/>
+      <c r="O30" s="195"/>
+      <c r="P30" s="195"/>
+      <c r="Q30" s="195"/>
+      <c r="R30" s="195"/>
+      <c r="S30" s="195"/>
+      <c r="T30" s="195"/>
     </row>
     <row r="31" spans="1:35">
-      <c r="A31" s="209"/>
-      <c r="B31" s="209"/>
-      <c r="C31" s="209"/>
-      <c r="D31" s="209"/>
-      <c r="E31" s="209"/>
-      <c r="F31" s="209"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="209"/>
-      <c r="J31" s="209"/>
-      <c r="K31" s="209"/>
-      <c r="L31" s="209"/>
-      <c r="M31" s="209"/>
-      <c r="N31" s="209"/>
-      <c r="O31" s="209"/>
-      <c r="P31" s="209"/>
-      <c r="Q31" s="209"/>
-      <c r="R31" s="209"/>
-      <c r="S31" s="209"/>
-      <c r="T31" s="209"/>
+      <c r="A31" s="195"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="195"/>
+      <c r="K31" s="195"/>
+      <c r="L31" s="195"/>
+      <c r="M31" s="195"/>
+      <c r="N31" s="195"/>
+      <c r="O31" s="195"/>
+      <c r="P31" s="195"/>
+      <c r="Q31" s="195"/>
+      <c r="R31" s="195"/>
+      <c r="S31" s="195"/>
+      <c r="T31" s="195"/>
     </row>
     <row r="32" spans="1:35">
-      <c r="A32" s="209"/>
-      <c r="B32" s="209"/>
-      <c r="C32" s="209"/>
-      <c r="D32" s="209"/>
-      <c r="E32" s="209"/>
-      <c r="F32" s="209"/>
-      <c r="G32" s="209"/>
-      <c r="H32" s="209"/>
-      <c r="I32" s="209"/>
-      <c r="J32" s="209"/>
-      <c r="K32" s="209"/>
-      <c r="L32" s="209"/>
-      <c r="M32" s="209"/>
-      <c r="N32" s="209"/>
-      <c r="O32" s="209"/>
-      <c r="P32" s="209"/>
-      <c r="Q32" s="209"/>
-      <c r="R32" s="209"/>
-      <c r="S32" s="209"/>
-      <c r="T32" s="209"/>
+      <c r="A32" s="195"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="195"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="195"/>
+      <c r="K32" s="195"/>
+      <c r="L32" s="195"/>
+      <c r="M32" s="195"/>
+      <c r="N32" s="195"/>
+      <c r="O32" s="195"/>
+      <c r="P32" s="195"/>
+      <c r="Q32" s="195"/>
+      <c r="R32" s="195"/>
+      <c r="S32" s="195"/>
+      <c r="T32" s="195"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="209"/>
-      <c r="B33" s="209"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="209"/>
-      <c r="E33" s="209"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="209"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="209"/>
-      <c r="K33" s="209"/>
-      <c r="L33" s="209"/>
-      <c r="M33" s="209"/>
-      <c r="N33" s="209"/>
-      <c r="O33" s="209"/>
-      <c r="P33" s="209"/>
-      <c r="Q33" s="209"/>
-      <c r="R33" s="209"/>
-      <c r="S33" s="209"/>
-      <c r="T33" s="209"/>
+      <c r="A33" s="195"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="195"/>
+      <c r="K33" s="195"/>
+      <c r="L33" s="195"/>
+      <c r="M33" s="195"/>
+      <c r="N33" s="195"/>
+      <c r="O33" s="195"/>
+      <c r="P33" s="195"/>
+      <c r="Q33" s="195"/>
+      <c r="R33" s="195"/>
+      <c r="S33" s="195"/>
+      <c r="T33" s="195"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="209"/>
-      <c r="B34" s="209"/>
-      <c r="C34" s="209"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="209"/>
-      <c r="H34" s="209"/>
-      <c r="I34" s="209"/>
-      <c r="J34" s="209"/>
-      <c r="K34" s="209"/>
-      <c r="L34" s="209"/>
-      <c r="M34" s="209"/>
-      <c r="N34" s="209"/>
-      <c r="O34" s="209"/>
-      <c r="P34" s="209"/>
-      <c r="Q34" s="209"/>
-      <c r="R34" s="209"/>
-      <c r="S34" s="209"/>
-      <c r="T34" s="209"/>
+      <c r="A34" s="195"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="195"/>
+      <c r="L34" s="195"/>
+      <c r="M34" s="195"/>
+      <c r="N34" s="195"/>
+      <c r="O34" s="195"/>
+      <c r="P34" s="195"/>
+      <c r="Q34" s="195"/>
+      <c r="R34" s="195"/>
+      <c r="S34" s="195"/>
+      <c r="T34" s="195"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="209"/>
-      <c r="B35" s="209"/>
-      <c r="C35" s="209"/>
-      <c r="D35" s="209"/>
-      <c r="E35" s="209"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="209"/>
-      <c r="H35" s="209"/>
-      <c r="I35" s="209"/>
-      <c r="J35" s="209"/>
-      <c r="K35" s="209"/>
-      <c r="L35" s="209"/>
-      <c r="M35" s="209"/>
-      <c r="N35" s="209"/>
-      <c r="O35" s="209"/>
-      <c r="P35" s="209"/>
-      <c r="Q35" s="209"/>
-      <c r="R35" s="209"/>
-      <c r="S35" s="209"/>
-      <c r="T35" s="209"/>
+      <c r="A35" s="195"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="195"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="195"/>
+      <c r="L35" s="195"/>
+      <c r="M35" s="195"/>
+      <c r="N35" s="195"/>
+      <c r="O35" s="195"/>
+      <c r="P35" s="195"/>
+      <c r="Q35" s="195"/>
+      <c r="R35" s="195"/>
+      <c r="S35" s="195"/>
+      <c r="T35" s="195"/>
     </row>
     <row r="47" spans="1:20">
       <c r="D47" s="48"/>
@@ -26009,11 +26009,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="O27:S29"/>
-    <mergeCell ref="A30:T35"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O22:S22"/>
     <mergeCell ref="A10:H18"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="F1:O1"/>
@@ -26021,6 +26016,11 @@
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="O8:S8"/>
     <mergeCell ref="O13:S13"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="O27:S29"/>
+    <mergeCell ref="A30:T35"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O22:S22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q26" location="'Main Screen'!A1" display="Cancel "/>
@@ -26199,8 +26199,8 @@
   </sheetPr>
   <dimension ref="A1:AI75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.7"/>
@@ -26226,25 +26226,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="13.35">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="203" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
       <c r="P1" s="60" t="s">
         <v>13</v>
       </c>
@@ -26259,23 +26259,23 @@
       </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="197"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="204" t="s">
+      <c r="A2" s="202"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="204"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
       <c r="P2" s="67" t="s">
         <v>40</v>
       </c>
@@ -26284,21 +26284,21 @@
       <c r="S2" s="67"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="200"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
       <c r="P3" s="68">
         <v>43411</v>
       </c>
@@ -26388,13 +26388,13 @@
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
       <c r="N7" s="50"/>
-      <c r="O7" s="205" t="s">
+      <c r="O7" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="P7" s="206"/>
-      <c r="Q7" s="206"/>
-      <c r="R7" s="206"/>
-      <c r="S7" s="207"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
+      <c r="S7" s="212"/>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="107"/>
@@ -26511,13 +26511,13 @@
       <c r="U12" s="48"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="193"/>
-      <c r="B13" s="193"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
+      <c r="A13" s="194"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
       <c r="H13" s="216"/>
       <c r="I13" s="108"/>
       <c r="J13" s="109"/>
@@ -26536,13 +26536,13 @@
       <c r="U13" s="48"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="193"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
+      <c r="A14" s="194"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
       <c r="H14" s="216"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -26559,13 +26559,13 @@
       <c r="S14" s="50"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="193"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
+      <c r="A15" s="194"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
       <c r="H15" s="216"/>
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
@@ -26595,13 +26595,13 @@
       <c r="AI15" s="48"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="193"/>
-      <c r="B16" s="193"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
+      <c r="A16" s="194"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
       <c r="H16" s="216"/>
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
@@ -26631,13 +26631,13 @@
       <c r="AI16" s="48"/>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" s="193"/>
-      <c r="B17" s="193"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
       <c r="H17" s="216"/>
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
@@ -26667,13 +26667,13 @@
       <c r="AI17" s="48"/>
     </row>
     <row r="18" spans="1:35">
-      <c r="A18" s="193"/>
-      <c r="B18" s="193"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
+      <c r="A18" s="194"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
       <c r="H18" s="216"/>
       <c r="I18" s="54"/>
       <c r="J18" s="48"/>
@@ -26703,13 +26703,13 @@
       <c r="AI18" s="48"/>
     </row>
     <row r="19" spans="1:35">
-      <c r="A19" s="193"/>
-      <c r="B19" s="193"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
+      <c r="A19" s="194"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
       <c r="H19" s="48"/>
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
@@ -26739,13 +26739,13 @@
       <c r="AI19" s="48"/>
     </row>
     <row r="20" spans="1:35">
-      <c r="A20" s="193"/>
-      <c r="B20" s="193"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
+      <c r="A20" s="194"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
       <c r="H20" s="48"/>
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
@@ -26775,13 +26775,13 @@
       <c r="AI20" s="48"/>
     </row>
     <row r="21" spans="1:35">
-      <c r="A21" s="193"/>
-      <c r="B21" s="193"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
+      <c r="A21" s="194"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
       <c r="H21" s="48"/>
       <c r="I21" s="48"/>
       <c r="J21" s="48"/>
@@ -26811,13 +26811,13 @@
       <c r="AI21" s="48"/>
     </row>
     <row r="22" spans="1:35">
-      <c r="A22" s="193"/>
-      <c r="B22" s="193"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
+      <c r="A22" s="194"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
       <c r="J22" s="48"/>
@@ -26844,13 +26844,13 @@
       <c r="AI22" s="48"/>
     </row>
     <row r="23" spans="1:35">
-      <c r="A23" s="193"/>
-      <c r="B23" s="193"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
+      <c r="A23" s="194"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
       <c r="K23" s="48"/>
@@ -26866,13 +26866,13 @@
       <c r="S23" s="191"/>
     </row>
     <row r="24" spans="1:35">
-      <c r="A24" s="193"/>
-      <c r="B24" s="193"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
+      <c r="A24" s="194"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
       <c r="J24" s="48"/>
@@ -26936,7 +26936,7 @@
     <row r="27" spans="1:35" ht="15.35">
       <c r="A27" s="47"/>
       <c r="B27" s="100" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C27" s="100" t="s">
         <v>45</v>
@@ -27650,28 +27650,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.35">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="225" t="s">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="226"/>
-      <c r="O1" s="226"/>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="226"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="219"/>
+      <c r="Q1" s="219"/>
+      <c r="R1" s="219"/>
       <c r="S1" s="60" t="s">
         <v>13</v>
       </c>
@@ -27686,11 +27686,11 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="198"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="199"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="204"/>
       <c r="F2" s="182" t="s">
         <v>92</v>
       </c>
@@ -27714,11 +27714,11 @@
       <c r="V2" s="67"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="201"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="202"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="207"/>
       <c r="F3" s="185"/>
       <c r="G3" s="186"/>
       <c r="H3" s="186"/>
@@ -27793,13 +27793,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="48"/>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="217" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
       <c r="G6" s="48"/>
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
@@ -27847,11 +27847,11 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="48"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
+      <c r="B8" s="217"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
       <c r="I8" s="48"/>
@@ -27888,7 +27888,7 @@
       <c r="N9" s="110"/>
       <c r="O9" s="110"/>
       <c r="P9" s="110"/>
-      <c r="Q9" s="227"/>
+      <c r="Q9" s="223"/>
       <c r="R9" s="78" t="s">
         <v>87</v>
       </c>
@@ -27914,7 +27914,7 @@
       <c r="N10" s="111"/>
       <c r="O10" s="111"/>
       <c r="P10" s="112"/>
-      <c r="Q10" s="227"/>
+      <c r="Q10" s="223"/>
       <c r="R10" s="78" t="s">
         <v>86</v>
       </c>
@@ -27940,7 +27940,7 @@
       <c r="N11" s="113"/>
       <c r="O11" s="113"/>
       <c r="P11" s="112"/>
-      <c r="Q11" s="227"/>
+      <c r="Q11" s="223"/>
       <c r="R11" s="97" t="s">
         <v>72</v>
       </c>
@@ -27950,23 +27950,23 @@
       <c r="V11" s="95"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="219"/>
-      <c r="B12" s="219"/>
-      <c r="C12" s="219"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="219"/>
-      <c r="G12" s="219"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="219"/>
-      <c r="J12" s="219"/>
-      <c r="K12" s="219"/>
-      <c r="L12" s="219"/>
-      <c r="M12" s="219"/>
-      <c r="N12" s="219"/>
-      <c r="O12" s="219"/>
-      <c r="P12" s="219"/>
-      <c r="Q12" s="220"/>
+      <c r="A12" s="226"/>
+      <c r="B12" s="226"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="226"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="226"/>
+      <c r="O12" s="226"/>
+      <c r="P12" s="226"/>
+      <c r="Q12" s="227"/>
       <c r="R12" s="78"/>
       <c r="S12" s="48"/>
       <c r="T12" s="48"/>
@@ -28084,13 +28084,13 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="48"/>
-      <c r="B16" s="221">
+      <c r="B16" s="220">
         <v>1234</v>
       </c>
-      <c r="C16" s="221" t="s">
+      <c r="C16" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="221">
+      <c r="D16" s="220">
         <v>122</v>
       </c>
       <c r="E16" s="40" t="s">
@@ -28127,9 +28127,9 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="48"/>
-      <c r="B17" s="222"/>
-      <c r="C17" s="223"/>
-      <c r="D17" s="223"/>
+      <c r="B17" s="221"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="222"/>
       <c r="E17" s="90" t="s">
         <v>142</v>
       </c>
@@ -28164,13 +28164,13 @@
     </row>
     <row r="18" spans="1:22" ht="15.35">
       <c r="A18" s="48"/>
-      <c r="B18" s="217">
+      <c r="B18" s="224">
         <v>1233</v>
       </c>
-      <c r="C18" s="217" t="s">
+      <c r="C18" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="217">
+      <c r="D18" s="224">
         <v>111</v>
       </c>
       <c r="E18" s="92" t="s">
@@ -28207,9 +28207,9 @@
     </row>
     <row r="19" spans="1:22" ht="15.35">
       <c r="A19" s="48"/>
-      <c r="B19" s="218"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="218"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="225"/>
       <c r="E19" s="93" t="s">
         <v>142</v>
       </c>
@@ -28246,13 +28246,13 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="48"/>
-      <c r="B20" s="221">
+      <c r="B20" s="220">
         <v>1234</v>
       </c>
-      <c r="C20" s="221" t="s">
+      <c r="C20" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="221">
+      <c r="D20" s="220">
         <v>122</v>
       </c>
       <c r="E20" s="40" t="s">
@@ -28287,9 +28287,9 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="48"/>
-      <c r="B21" s="222"/>
-      <c r="C21" s="223"/>
-      <c r="D21" s="223"/>
+      <c r="B21" s="221"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="222"/>
       <c r="E21" s="90" t="s">
         <v>142</v>
       </c>
@@ -28324,13 +28324,13 @@
     </row>
     <row r="22" spans="1:22" ht="15.35">
       <c r="A22" s="48"/>
-      <c r="B22" s="217">
+      <c r="B22" s="224">
         <v>1233</v>
       </c>
-      <c r="C22" s="217" t="s">
+      <c r="C22" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="217">
+      <c r="D22" s="224">
         <v>111</v>
       </c>
       <c r="E22" s="92" t="s">
@@ -28367,9 +28367,9 @@
     </row>
     <row r="23" spans="1:22" ht="15.35">
       <c r="A23" s="48"/>
-      <c r="B23" s="218"/>
-      <c r="C23" s="218"/>
-      <c r="D23" s="218"/>
+      <c r="B23" s="225"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="225"/>
       <c r="E23" s="93" t="s">
         <v>142</v>
       </c>
@@ -29092,6 +29092,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="R17:V17"/>
     <mergeCell ref="R21:V21"/>
@@ -29108,15 +29117,6 @@
     <mergeCell ref="Q9:Q11"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29205,28 +29205,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.35">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="225" t="s">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="226"/>
-      <c r="O1" s="226"/>
-      <c r="P1" s="226"/>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="226"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="219"/>
+      <c r="Q1" s="219"/>
+      <c r="R1" s="219"/>
       <c r="S1" s="60" t="s">
         <v>13</v>
       </c>
@@ -29241,11 +29241,11 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="198"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="199"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="204"/>
       <c r="F2" s="182" t="s">
         <v>94</v>
       </c>
@@ -29269,11 +29269,11 @@
       <c r="V2" s="67"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="201"/>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="202"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="207"/>
       <c r="F3" s="185"/>
       <c r="G3" s="186"/>
       <c r="H3" s="186"/>
@@ -29348,11 +29348,11 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="48"/>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
+      <c r="B6" s="217"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
       <c r="G6" s="48"/>
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
@@ -29400,11 +29400,11 @@
     </row>
     <row r="8" spans="1:22" ht="0.7" customHeight="1">
       <c r="A8" s="216"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
+      <c r="B8" s="217"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
       <c r="I8" s="48"/>
@@ -29426,7 +29426,7 @@
     </row>
     <row r="9" spans="1:22" s="108" customFormat="1" ht="6.7" customHeight="1">
       <c r="A9" s="216"/>
-      <c r="B9" s="219"/>
+      <c r="B9" s="226"/>
       <c r="C9" s="105"/>
       <c r="D9" s="105"/>
       <c r="E9" s="105"/>
@@ -29450,7 +29450,7 @@
     </row>
     <row r="10" spans="1:22" s="108" customFormat="1" ht="13.35">
       <c r="A10" s="216"/>
-      <c r="B10" s="219"/>
+      <c r="B10" s="226"/>
       <c r="C10" s="105"/>
       <c r="D10" s="105"/>
       <c r="E10" s="105"/>
@@ -29476,7 +29476,7 @@
     </row>
     <row r="11" spans="1:22" s="108" customFormat="1">
       <c r="A11" s="216"/>
-      <c r="B11" s="219"/>
+      <c r="B11" s="226"/>
       <c r="C11" s="105"/>
       <c r="D11" s="105"/>
       <c r="E11" s="105"/>
@@ -30255,6 +30255,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="R12:V12"/>
     <mergeCell ref="R6:V6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A1:E3"/>
@@ -30262,11 +30267,6 @@
     <mergeCell ref="F2:R3"/>
     <mergeCell ref="R4:V4"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="R12:V12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R18" location="ログイン!A1" display="Menu Screen"/>
@@ -30691,14 +30691,14 @@
       <c r="B1" s="188"/>
       <c r="C1" s="188"/>
       <c r="D1" s="188"/>
-      <c r="E1" s="225" t="s">
+      <c r="E1" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
       <c r="K1" s="16" t="s">
         <v>13</v>
       </c>
@@ -31731,7 +31731,7 @@
   </sheetPr>
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
@@ -31760,14 +31760,14 @@
       <c r="B1" s="188"/>
       <c r="C1" s="188"/>
       <c r="D1" s="188"/>
-      <c r="E1" s="225" t="s">
+      <c r="E1" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
       <c r="K1" s="60" t="s">
         <v>13</v>
       </c>
@@ -32525,260 +32525,260 @@
       <c r="N45" s="45"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="193"/>
-      <c r="B46" s="193"/>
-      <c r="C46" s="193"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="193"/>
-      <c r="F46" s="193"/>
-      <c r="G46" s="193"/>
-      <c r="H46" s="193"/>
-      <c r="I46" s="193"/>
-      <c r="J46" s="193"/>
-      <c r="K46" s="193"/>
-      <c r="L46" s="193"/>
-      <c r="M46" s="193"/>
-      <c r="N46" s="193"/>
+      <c r="A46" s="194"/>
+      <c r="B46" s="194"/>
+      <c r="C46" s="194"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="194"/>
+      <c r="H46" s="194"/>
+      <c r="I46" s="194"/>
+      <c r="J46" s="194"/>
+      <c r="K46" s="194"/>
+      <c r="L46" s="194"/>
+      <c r="M46" s="194"/>
+      <c r="N46" s="194"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="193"/>
-      <c r="B47" s="193"/>
-      <c r="C47" s="193"/>
-      <c r="D47" s="193"/>
-      <c r="E47" s="193"/>
-      <c r="F47" s="193"/>
-      <c r="G47" s="193"/>
-      <c r="H47" s="193"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="193"/>
-      <c r="K47" s="193"/>
-      <c r="L47" s="193"/>
-      <c r="M47" s="193"/>
-      <c r="N47" s="193"/>
+      <c r="A47" s="194"/>
+      <c r="B47" s="194"/>
+      <c r="C47" s="194"/>
+      <c r="D47" s="194"/>
+      <c r="E47" s="194"/>
+      <c r="F47" s="194"/>
+      <c r="G47" s="194"/>
+      <c r="H47" s="194"/>
+      <c r="I47" s="194"/>
+      <c r="J47" s="194"/>
+      <c r="K47" s="194"/>
+      <c r="L47" s="194"/>
+      <c r="M47" s="194"/>
+      <c r="N47" s="194"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="193"/>
-      <c r="B48" s="193"/>
-      <c r="C48" s="193"/>
-      <c r="D48" s="193"/>
-      <c r="E48" s="193"/>
-      <c r="F48" s="193"/>
-      <c r="G48" s="193"/>
-      <c r="H48" s="193"/>
-      <c r="I48" s="193"/>
-      <c r="J48" s="193"/>
-      <c r="K48" s="193"/>
-      <c r="L48" s="193"/>
-      <c r="M48" s="193"/>
-      <c r="N48" s="193"/>
+      <c r="A48" s="194"/>
+      <c r="B48" s="194"/>
+      <c r="C48" s="194"/>
+      <c r="D48" s="194"/>
+      <c r="E48" s="194"/>
+      <c r="F48" s="194"/>
+      <c r="G48" s="194"/>
+      <c r="H48" s="194"/>
+      <c r="I48" s="194"/>
+      <c r="J48" s="194"/>
+      <c r="K48" s="194"/>
+      <c r="L48" s="194"/>
+      <c r="M48" s="194"/>
+      <c r="N48" s="194"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="193"/>
-      <c r="B49" s="193"/>
-      <c r="C49" s="193"/>
-      <c r="D49" s="193"/>
-      <c r="E49" s="193"/>
-      <c r="F49" s="193"/>
-      <c r="G49" s="193"/>
-      <c r="H49" s="193"/>
-      <c r="I49" s="193"/>
-      <c r="J49" s="193"/>
-      <c r="K49" s="193"/>
-      <c r="L49" s="193"/>
-      <c r="M49" s="193"/>
-      <c r="N49" s="193"/>
+      <c r="A49" s="194"/>
+      <c r="B49" s="194"/>
+      <c r="C49" s="194"/>
+      <c r="D49" s="194"/>
+      <c r="E49" s="194"/>
+      <c r="F49" s="194"/>
+      <c r="G49" s="194"/>
+      <c r="H49" s="194"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="194"/>
+      <c r="K49" s="194"/>
+      <c r="L49" s="194"/>
+      <c r="M49" s="194"/>
+      <c r="N49" s="194"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="193"/>
-      <c r="B50" s="193"/>
-      <c r="C50" s="193"/>
-      <c r="D50" s="193"/>
-      <c r="E50" s="193"/>
-      <c r="F50" s="193"/>
-      <c r="G50" s="193"/>
-      <c r="H50" s="193"/>
-      <c r="I50" s="193"/>
-      <c r="J50" s="193"/>
-      <c r="K50" s="193"/>
-      <c r="L50" s="193"/>
-      <c r="M50" s="193"/>
-      <c r="N50" s="193"/>
+      <c r="A50" s="194"/>
+      <c r="B50" s="194"/>
+      <c r="C50" s="194"/>
+      <c r="D50" s="194"/>
+      <c r="E50" s="194"/>
+      <c r="F50" s="194"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="194"/>
+      <c r="I50" s="194"/>
+      <c r="J50" s="194"/>
+      <c r="K50" s="194"/>
+      <c r="L50" s="194"/>
+      <c r="M50" s="194"/>
+      <c r="N50" s="194"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="193"/>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="193"/>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="193"/>
-      <c r="K51" s="193"/>
-      <c r="L51" s="193"/>
-      <c r="M51" s="193"/>
-      <c r="N51" s="193"/>
+      <c r="A51" s="194"/>
+      <c r="B51" s="194"/>
+      <c r="C51" s="194"/>
+      <c r="D51" s="194"/>
+      <c r="E51" s="194"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="194"/>
+      <c r="I51" s="194"/>
+      <c r="J51" s="194"/>
+      <c r="K51" s="194"/>
+      <c r="L51" s="194"/>
+      <c r="M51" s="194"/>
+      <c r="N51" s="194"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="193"/>
-      <c r="B52" s="193"/>
-      <c r="C52" s="193"/>
-      <c r="D52" s="193"/>
-      <c r="E52" s="193"/>
-      <c r="F52" s="193"/>
-      <c r="G52" s="193"/>
-      <c r="H52" s="193"/>
-      <c r="I52" s="193"/>
-      <c r="J52" s="193"/>
-      <c r="K52" s="193"/>
-      <c r="L52" s="193"/>
-      <c r="M52" s="193"/>
-      <c r="N52" s="193"/>
+      <c r="A52" s="194"/>
+      <c r="B52" s="194"/>
+      <c r="C52" s="194"/>
+      <c r="D52" s="194"/>
+      <c r="E52" s="194"/>
+      <c r="F52" s="194"/>
+      <c r="G52" s="194"/>
+      <c r="H52" s="194"/>
+      <c r="I52" s="194"/>
+      <c r="J52" s="194"/>
+      <c r="K52" s="194"/>
+      <c r="L52" s="194"/>
+      <c r="M52" s="194"/>
+      <c r="N52" s="194"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="193"/>
-      <c r="B53" s="193"/>
-      <c r="C53" s="193"/>
-      <c r="D53" s="193"/>
-      <c r="E53" s="193"/>
-      <c r="F53" s="193"/>
-      <c r="G53" s="193"/>
-      <c r="H53" s="193"/>
-      <c r="I53" s="193"/>
-      <c r="J53" s="193"/>
-      <c r="K53" s="193"/>
-      <c r="L53" s="193"/>
-      <c r="M53" s="193"/>
-      <c r="N53" s="193"/>
+      <c r="A53" s="194"/>
+      <c r="B53" s="194"/>
+      <c r="C53" s="194"/>
+      <c r="D53" s="194"/>
+      <c r="E53" s="194"/>
+      <c r="F53" s="194"/>
+      <c r="G53" s="194"/>
+      <c r="H53" s="194"/>
+      <c r="I53" s="194"/>
+      <c r="J53" s="194"/>
+      <c r="K53" s="194"/>
+      <c r="L53" s="194"/>
+      <c r="M53" s="194"/>
+      <c r="N53" s="194"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="193"/>
-      <c r="B54" s="193"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="193"/>
-      <c r="E54" s="193"/>
-      <c r="F54" s="193"/>
-      <c r="G54" s="193"/>
-      <c r="H54" s="193"/>
-      <c r="I54" s="193"/>
-      <c r="J54" s="193"/>
-      <c r="K54" s="193"/>
-      <c r="L54" s="193"/>
-      <c r="M54" s="193"/>
-      <c r="N54" s="193"/>
+      <c r="A54" s="194"/>
+      <c r="B54" s="194"/>
+      <c r="C54" s="194"/>
+      <c r="D54" s="194"/>
+      <c r="E54" s="194"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="194"/>
+      <c r="H54" s="194"/>
+      <c r="I54" s="194"/>
+      <c r="J54" s="194"/>
+      <c r="K54" s="194"/>
+      <c r="L54" s="194"/>
+      <c r="M54" s="194"/>
+      <c r="N54" s="194"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="193"/>
-      <c r="B55" s="193"/>
-      <c r="C55" s="193"/>
-      <c r="D55" s="193"/>
-      <c r="E55" s="193"/>
-      <c r="F55" s="193"/>
-      <c r="G55" s="193"/>
-      <c r="H55" s="193"/>
-      <c r="I55" s="193"/>
-      <c r="J55" s="193"/>
-      <c r="K55" s="193"/>
-      <c r="L55" s="193"/>
-      <c r="M55" s="193"/>
-      <c r="N55" s="193"/>
+      <c r="A55" s="194"/>
+      <c r="B55" s="194"/>
+      <c r="C55" s="194"/>
+      <c r="D55" s="194"/>
+      <c r="E55" s="194"/>
+      <c r="F55" s="194"/>
+      <c r="G55" s="194"/>
+      <c r="H55" s="194"/>
+      <c r="I55" s="194"/>
+      <c r="J55" s="194"/>
+      <c r="K55" s="194"/>
+      <c r="L55" s="194"/>
+      <c r="M55" s="194"/>
+      <c r="N55" s="194"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="193"/>
-      <c r="B56" s="193"/>
-      <c r="C56" s="193"/>
-      <c r="D56" s="193"/>
-      <c r="E56" s="193"/>
-      <c r="F56" s="193"/>
-      <c r="G56" s="193"/>
-      <c r="H56" s="193"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="193"/>
-      <c r="K56" s="193"/>
-      <c r="L56" s="193"/>
-      <c r="M56" s="193"/>
-      <c r="N56" s="193"/>
+      <c r="A56" s="194"/>
+      <c r="B56" s="194"/>
+      <c r="C56" s="194"/>
+      <c r="D56" s="194"/>
+      <c r="E56" s="194"/>
+      <c r="F56" s="194"/>
+      <c r="G56" s="194"/>
+      <c r="H56" s="194"/>
+      <c r="I56" s="194"/>
+      <c r="J56" s="194"/>
+      <c r="K56" s="194"/>
+      <c r="L56" s="194"/>
+      <c r="M56" s="194"/>
+      <c r="N56" s="194"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="193"/>
-      <c r="B57" s="193"/>
-      <c r="C57" s="193"/>
-      <c r="D57" s="193"/>
-      <c r="E57" s="193"/>
-      <c r="F57" s="193"/>
-      <c r="G57" s="193"/>
-      <c r="H57" s="193"/>
-      <c r="I57" s="193"/>
-      <c r="J57" s="193"/>
-      <c r="K57" s="193"/>
-      <c r="L57" s="193"/>
-      <c r="M57" s="193"/>
-      <c r="N57" s="193"/>
+      <c r="A57" s="194"/>
+      <c r="B57" s="194"/>
+      <c r="C57" s="194"/>
+      <c r="D57" s="194"/>
+      <c r="E57" s="194"/>
+      <c r="F57" s="194"/>
+      <c r="G57" s="194"/>
+      <c r="H57" s="194"/>
+      <c r="I57" s="194"/>
+      <c r="J57" s="194"/>
+      <c r="K57" s="194"/>
+      <c r="L57" s="194"/>
+      <c r="M57" s="194"/>
+      <c r="N57" s="194"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="193"/>
-      <c r="B58" s="193"/>
-      <c r="C58" s="193"/>
-      <c r="D58" s="193"/>
-      <c r="E58" s="193"/>
-      <c r="F58" s="193"/>
-      <c r="G58" s="193"/>
-      <c r="H58" s="193"/>
-      <c r="I58" s="193"/>
-      <c r="J58" s="193"/>
-      <c r="K58" s="193"/>
-      <c r="L58" s="193"/>
-      <c r="M58" s="193"/>
-      <c r="N58" s="193"/>
+      <c r="A58" s="194"/>
+      <c r="B58" s="194"/>
+      <c r="C58" s="194"/>
+      <c r="D58" s="194"/>
+      <c r="E58" s="194"/>
+      <c r="F58" s="194"/>
+      <c r="G58" s="194"/>
+      <c r="H58" s="194"/>
+      <c r="I58" s="194"/>
+      <c r="J58" s="194"/>
+      <c r="K58" s="194"/>
+      <c r="L58" s="194"/>
+      <c r="M58" s="194"/>
+      <c r="N58" s="194"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="193"/>
-      <c r="B59" s="193"/>
-      <c r="C59" s="193"/>
-      <c r="D59" s="193"/>
-      <c r="E59" s="193"/>
-      <c r="F59" s="193"/>
-      <c r="G59" s="193"/>
-      <c r="H59" s="193"/>
-      <c r="I59" s="193"/>
-      <c r="J59" s="193"/>
-      <c r="K59" s="193"/>
-      <c r="L59" s="193"/>
-      <c r="M59" s="193"/>
-      <c r="N59" s="193"/>
+      <c r="A59" s="194"/>
+      <c r="B59" s="194"/>
+      <c r="C59" s="194"/>
+      <c r="D59" s="194"/>
+      <c r="E59" s="194"/>
+      <c r="F59" s="194"/>
+      <c r="G59" s="194"/>
+      <c r="H59" s="194"/>
+      <c r="I59" s="194"/>
+      <c r="J59" s="194"/>
+      <c r="K59" s="194"/>
+      <c r="L59" s="194"/>
+      <c r="M59" s="194"/>
+      <c r="N59" s="194"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="193"/>
-      <c r="B60" s="193"/>
-      <c r="C60" s="193"/>
-      <c r="D60" s="193"/>
-      <c r="E60" s="193"/>
-      <c r="F60" s="193"/>
-      <c r="G60" s="193"/>
-      <c r="H60" s="193"/>
-      <c r="I60" s="193"/>
-      <c r="J60" s="193"/>
-      <c r="K60" s="193"/>
-      <c r="L60" s="193"/>
-      <c r="M60" s="193"/>
-      <c r="N60" s="193"/>
+      <c r="A60" s="194"/>
+      <c r="B60" s="194"/>
+      <c r="C60" s="194"/>
+      <c r="D60" s="194"/>
+      <c r="E60" s="194"/>
+      <c r="F60" s="194"/>
+      <c r="G60" s="194"/>
+      <c r="H60" s="194"/>
+      <c r="I60" s="194"/>
+      <c r="J60" s="194"/>
+      <c r="K60" s="194"/>
+      <c r="L60" s="194"/>
+      <c r="M60" s="194"/>
+      <c r="N60" s="194"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="193"/>
-      <c r="B61" s="193"/>
-      <c r="C61" s="193"/>
-      <c r="D61" s="193"/>
-      <c r="E61" s="193"/>
-      <c r="F61" s="193"/>
-      <c r="G61" s="193"/>
-      <c r="H61" s="193"/>
-      <c r="I61" s="193"/>
-      <c r="J61" s="193"/>
-      <c r="K61" s="193"/>
-      <c r="L61" s="193"/>
-      <c r="M61" s="193"/>
-      <c r="N61" s="193"/>
+      <c r="A61" s="194"/>
+      <c r="B61" s="194"/>
+      <c r="C61" s="194"/>
+      <c r="D61" s="194"/>
+      <c r="E61" s="194"/>
+      <c r="F61" s="194"/>
+      <c r="G61" s="194"/>
+      <c r="H61" s="194"/>
+      <c r="I61" s="194"/>
+      <c r="J61" s="194"/>
+      <c r="K61" s="194"/>
+      <c r="L61" s="194"/>
+      <c r="M61" s="194"/>
+      <c r="N61" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -32859,9 +32859,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32997,26 +33000,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02A580B-C9DA-4286-A2BC-8AF17618395A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C8FBACF-A5C7-4155-B03A-DC3678DCA1C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4bad80db-3a4e-4dde-8c9e-0054f8c0f432"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33040,9 +33032,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C8FBACF-A5C7-4155-B03A-DC3678DCA1C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02A580B-C9DA-4286-A2BC-8AF17618395A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4bad80db-3a4e-4dde-8c9e-0054f8c0f432"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>